--- a/data/Metadata_12.17.18.xlsx
+++ b/data/Metadata_12.17.18.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05473FFB-4FB8-4431-9FED-C4A9AED24166}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61F374B0-2247-48A6-A754-566E43A4E129}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="330" yWindow="330" windowWidth="13740" windowHeight="11565" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet4" sheetId="4" r:id="rId1"/>
@@ -1987,8 +1987,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5BE6E89-2400-42E3-9D76-7BFF74D1EA46}">
   <dimension ref="A1:K198"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E91" sqref="E91"/>
+    <sheetView tabSelected="1" topLeftCell="A175" workbookViewId="0">
+      <selection activeCell="A195" sqref="A195:XFD195"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2077,83 +2077,83 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>92</v>
       </c>
       <c r="B3" t="s">
-        <v>385</v>
+        <v>93</v>
       </c>
       <c r="C3" t="s">
         <v>380</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>533</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>524</v>
+        <v>534</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>522</v>
+        <v>534</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>50</v>
+        <v>135</v>
       </c>
       <c r="B4" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C4" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>524</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>533</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>524</v>
+        <v>534</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>512</v>
+        <v>534</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>92</v>
+        <v>156</v>
       </c>
       <c r="B5" t="s">
-        <v>93</v>
+        <v>157</v>
       </c>
       <c r="C5" t="s">
-        <v>380</v>
+        <v>1</v>
       </c>
       <c r="D5" t="s">
         <v>2</v>
@@ -2168,10 +2168,10 @@
         <v>533</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>413</v>
+        <v>533</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>534</v>
@@ -2182,66 +2182,66 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>114</v>
+        <v>178</v>
       </c>
       <c r="B6" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="C6" t="s">
-        <v>380</v>
+        <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>525</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>524</v>
+      <c r="F6" s="2" t="s">
+        <v>525</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>533</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>523</v>
+      <c r="H6" s="2" t="s">
+        <v>507</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>414</v>
+        <v>533</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>524</v>
+        <v>534</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>512</v>
+        <v>534</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>135</v>
+        <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="C7" t="s">
-        <v>379</v>
+        <v>1</v>
       </c>
       <c r="D7" t="s">
         <v>2</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="F7" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>525</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>533</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>415</v>
+        <v>533</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>534</v>
@@ -2252,10 +2252,10 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>156</v>
+        <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>157</v>
+        <v>4</v>
       </c>
       <c r="C8" t="s">
         <v>1</v>
@@ -2266,7 +2266,7 @@
       <c r="E8" s="1" t="s">
         <v>525</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" s="2" t="s">
         <v>525</v>
       </c>
       <c r="G8" s="3" t="s">
@@ -2287,10 +2287,10 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>178</v>
+        <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>389</v>
+        <v>6</v>
       </c>
       <c r="C9" t="s">
         <v>1</v>
@@ -2307,7 +2307,7 @@
       <c r="G9" s="3" t="s">
         <v>533</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="H9" s="1" t="s">
         <v>507</v>
       </c>
       <c r="I9" s="8" t="s">
@@ -2322,19 +2322,19 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C10" t="s">
-        <v>1</v>
+        <v>379</v>
       </c>
       <c r="D10" t="s">
         <v>2</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>525</v>
@@ -2343,10 +2343,10 @@
         <v>533</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>533</v>
+        <v>416</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>534</v>
@@ -2357,31 +2357,31 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>4</v>
+        <v>393</v>
       </c>
       <c r="C11" t="s">
-        <v>1</v>
+        <v>380</v>
       </c>
       <c r="D11" t="s">
         <v>2</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="F11" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>525</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>533</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>533</v>
+        <v>418</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>534</v>
@@ -2392,31 +2392,31 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
+        <v>394</v>
       </c>
       <c r="C12" t="s">
-        <v>1</v>
+        <v>380</v>
       </c>
       <c r="D12" t="s">
         <v>2</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>524</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>533</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>533</v>
+        <v>414</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>534</v>
@@ -2427,10 +2427,10 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="C13" t="s">
         <v>379</v>
@@ -2441,7 +2441,7 @@
       <c r="E13" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F13" s="1" t="s">
         <v>525</v>
       </c>
       <c r="G13" s="3" t="s">
@@ -2451,7 +2451,7 @@
         <v>504</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>534</v>
@@ -2462,45 +2462,45 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="C14" t="s">
         <v>380</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>533</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>524</v>
+        <v>534</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>511</v>
+        <v>534</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="C15" t="s">
         <v>380</v>
@@ -2509,7 +2509,7 @@
         <v>2</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>525</v>
@@ -2521,7 +2521,7 @@
         <v>504</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>534</v>
@@ -2532,13 +2532,13 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>394</v>
+        <v>18</v>
       </c>
       <c r="C16" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D16" t="s">
         <v>2</v>
@@ -2553,10 +2553,10 @@
         <v>533</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>414</v>
+        <v>422</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>534</v>
@@ -2567,19 +2567,19 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="C17" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D17" t="s">
         <v>2</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>525</v>
@@ -2591,7 +2591,7 @@
         <v>504</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>534</v>
@@ -2602,13 +2602,13 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>396</v>
+        <v>22</v>
       </c>
       <c r="C18" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D18" t="s">
         <v>2</v>
@@ -2623,10 +2623,10 @@
         <v>533</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>534</v>
@@ -2637,13 +2637,13 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="B19" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="C19" t="s">
-        <v>380</v>
+        <v>25</v>
       </c>
       <c r="D19" t="s">
         <v>2</v>
@@ -2652,16 +2652,13 @@
         <v>525</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="G19" s="3" t="s">
         <v>533</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="I19" s="8" t="s">
-        <v>421</v>
+        <v>507</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>534</v>
@@ -2672,22 +2669,22 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="B20" t="s">
-        <v>18</v>
+        <v>402</v>
       </c>
       <c r="C20" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D20" t="s">
         <v>2</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>533</v>
@@ -2696,7 +2693,7 @@
         <v>504</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>534</v>
@@ -2707,19 +2704,19 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="B21" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="C21" t="s">
         <v>380</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>525</v>
@@ -2728,24 +2725,24 @@
         <v>533</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>523</v>
+        <v>504</v>
       </c>
       <c r="I21" s="8" t="s">
-        <v>423</v>
+        <v>413</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>524</v>
+        <v>534</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>516</v>
+        <v>534</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="B22" t="s">
-        <v>399</v>
+        <v>31</v>
       </c>
       <c r="C22" t="s">
         <v>380</v>
@@ -2763,10 +2760,10 @@
         <v>533</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="I22" s="8" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>534</v>
@@ -2777,22 +2774,22 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="B23" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="C23" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D23" t="s">
         <v>2</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>533</v>
@@ -2801,7 +2798,7 @@
         <v>504</v>
       </c>
       <c r="I23" s="8" t="s">
-        <v>419</v>
+        <v>428</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>534</v>
@@ -2812,63 +2809,66 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="B24" t="s">
-        <v>400</v>
+        <v>35</v>
       </c>
       <c r="C24" t="s">
         <v>380</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>524</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>533</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="I24" s="8" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>524</v>
+        <v>534</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>512</v>
+        <v>534</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="B25" t="s">
-        <v>401</v>
+        <v>37</v>
       </c>
       <c r="C25" t="s">
-        <v>25</v>
+        <v>380</v>
       </c>
       <c r="D25" t="s">
         <v>2</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="G25" s="3" t="s">
         <v>533</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>507</v>
+        <v>508</v>
+      </c>
+      <c r="I25" s="8" t="s">
+        <v>429</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>534</v>
@@ -2879,10 +2879,10 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="B26" t="s">
-        <v>402</v>
+        <v>39</v>
       </c>
       <c r="C26" t="s">
         <v>380</v>
@@ -2891,7 +2891,7 @@
         <v>2</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>525</v>
@@ -2900,10 +2900,10 @@
         <v>533</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="I26" s="8" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="J26" s="1" t="s">
         <v>534</v>
@@ -2914,57 +2914,57 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="B27" t="s">
-        <v>403</v>
+        <v>43</v>
       </c>
       <c r="C27" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>524</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>533</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="I27" s="8" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>524</v>
+        <v>534</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>519</v>
+        <v>534</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="B28" t="s">
-        <v>404</v>
+        <v>45</v>
       </c>
       <c r="C28" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D28" t="s">
         <v>2</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="G28" s="3" t="s">
         <v>533</v>
@@ -2973,7 +2973,7 @@
         <v>504</v>
       </c>
       <c r="I28" s="8" t="s">
-        <v>413</v>
+        <v>422</v>
       </c>
       <c r="J28" s="1" t="s">
         <v>534</v>
@@ -2984,10 +2984,10 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="B29" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="C29" t="s">
         <v>380</v>
@@ -2996,10 +2996,10 @@
         <v>2</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>533</v>
@@ -3008,7 +3008,7 @@
         <v>507</v>
       </c>
       <c r="I29" s="8" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="J29" s="1" t="s">
         <v>534</v>
@@ -3019,19 +3019,19 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="B30" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="C30" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D30" t="s">
         <v>2</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>524</v>
@@ -3043,7 +3043,7 @@
         <v>504</v>
       </c>
       <c r="I30" s="8" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="J30" s="1" t="s">
         <v>534</v>
@@ -3054,10 +3054,10 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="B31" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="C31" t="s">
         <v>380</v>
@@ -3066,10 +3066,10 @@
         <v>2</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="G31" s="3" t="s">
         <v>533</v>
@@ -3078,7 +3078,7 @@
         <v>508</v>
       </c>
       <c r="I31" s="8" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="J31" s="1" t="s">
         <v>534</v>
@@ -3089,13 +3089,13 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="B32" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="C32" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D32" t="s">
         <v>2</v>
@@ -3104,16 +3104,16 @@
         <v>524</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="G32" s="3" t="s">
         <v>533</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="I32" s="8" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="J32" s="1" t="s">
         <v>534</v>
@@ -3124,13 +3124,13 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="B33" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="C33" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D33" t="s">
         <v>2</v>
@@ -3145,10 +3145,10 @@
         <v>533</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="I33" s="8" t="s">
-        <v>430</v>
+        <v>416</v>
       </c>
       <c r="J33" s="1" t="s">
         <v>534</v>
@@ -3159,16 +3159,16 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="B34" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="C34" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>524</v>
@@ -3180,36 +3180,36 @@
         <v>533</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>526</v>
+        <v>508</v>
       </c>
       <c r="I34" s="8" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>524</v>
+        <v>534</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>528</v>
+        <v>534</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="B35" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="C35" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D35" t="s">
         <v>2</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="G35" s="3" t="s">
         <v>533</v>
@@ -3218,7 +3218,7 @@
         <v>504</v>
       </c>
       <c r="I35" s="8" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="J35" s="1" t="s">
         <v>534</v>
@@ -3229,31 +3229,31 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="B36" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="C36" t="s">
-        <v>381</v>
+        <v>65</v>
       </c>
       <c r="D36" t="s">
         <v>2</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="G36" s="3" t="s">
         <v>533</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="I36" s="8" t="s">
-        <v>422</v>
+        <v>437</v>
       </c>
       <c r="J36" s="1" t="s">
         <v>534</v>
@@ -3264,10 +3264,10 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="B37" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="C37" t="s">
         <v>380</v>
@@ -3276,19 +3276,19 @@
         <v>2</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="G37" s="3" t="s">
         <v>533</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="I37" s="8" t="s">
-        <v>424</v>
+        <v>438</v>
       </c>
       <c r="J37" s="1" t="s">
         <v>534</v>
@@ -3299,10 +3299,10 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="B38" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="C38" t="s">
         <v>379</v>
@@ -3311,19 +3311,19 @@
         <v>2</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="G38" s="3" t="s">
         <v>533</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="I38" s="8" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="J38" s="1" t="s">
         <v>534</v>
@@ -3334,10 +3334,10 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="B39" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="C39" t="s">
         <v>380</v>
@@ -3346,7 +3346,7 @@
         <v>2</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>525</v>
@@ -3355,10 +3355,10 @@
         <v>533</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="I39" s="8" t="s">
-        <v>418</v>
+        <v>440</v>
       </c>
       <c r="J39" s="1" t="s">
         <v>534</v>
@@ -3369,13 +3369,13 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="B40" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="C40" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="D40" t="s">
         <v>2</v>
@@ -3384,16 +3384,16 @@
         <v>524</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="G40" s="3" t="s">
         <v>533</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="I40" s="8" t="s">
-        <v>434</v>
+        <v>441</v>
       </c>
       <c r="J40" s="1" t="s">
         <v>534</v>
@@ -3404,31 +3404,31 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="B41" t="s">
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="C41" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D41" t="s">
         <v>2</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>533</v>
+        <v>524</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>509</v>
       </c>
       <c r="H41" s="1" t="s">
         <v>504</v>
       </c>
       <c r="I41" s="8" t="s">
-        <v>416</v>
+        <v>443</v>
       </c>
       <c r="J41" s="1" t="s">
         <v>534</v>
@@ -3439,13 +3439,13 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>57</v>
+        <v>78</v>
       </c>
       <c r="B42" t="s">
-        <v>58</v>
+        <v>79</v>
       </c>
       <c r="C42" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D42" t="s">
         <v>2</v>
@@ -3456,14 +3456,14 @@
       <c r="F42" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="G42" s="3" t="s">
-        <v>533</v>
+      <c r="G42" t="s">
+        <v>518</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="I42" s="8" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="J42" s="1" t="s">
         <v>534</v>
@@ -3474,10 +3474,10 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>59</v>
+        <v>80</v>
       </c>
       <c r="B43" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="C43" t="s">
         <v>380</v>
@@ -3486,19 +3486,19 @@
         <v>2</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>525</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>533</v>
+      <c r="G43" s="4" t="s">
+        <v>509</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="I43" s="8" t="s">
-        <v>424</v>
+        <v>444</v>
       </c>
       <c r="J43" s="1" t="s">
         <v>534</v>
@@ -3509,48 +3509,48 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="B44" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="C44" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>533</v>
+        <v>524</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>509</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="I44" s="8" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>524</v>
+        <v>534</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>529</v>
+        <v>534</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="B45" t="s">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="C45" t="s">
-        <v>65</v>
+        <v>380</v>
       </c>
       <c r="D45" t="s">
         <v>2</v>
@@ -3561,14 +3561,14 @@
       <c r="F45" s="1" t="s">
         <v>525</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>533</v>
+      <c r="G45" s="5" t="s">
+        <v>518</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="I45" s="8" t="s">
-        <v>437</v>
+        <v>446</v>
       </c>
       <c r="J45" s="1" t="s">
         <v>534</v>
@@ -3579,31 +3579,31 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="B46" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="C46" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D46" t="s">
         <v>2</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>533</v>
+        <v>524</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>509</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="I46" s="8" t="s">
-        <v>438</v>
+        <v>447</v>
       </c>
       <c r="J46" s="1" t="s">
         <v>534</v>
@@ -3614,31 +3614,31 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="B47" t="s">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="C47" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D47" t="s">
         <v>2</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>525</v>
       </c>
-      <c r="G47" s="3" t="s">
-        <v>533</v>
+      <c r="G47" s="5" t="s">
+        <v>518</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="I47" s="8" t="s">
-        <v>439</v>
+        <v>448</v>
       </c>
       <c r="J47" s="1" t="s">
         <v>534</v>
@@ -3649,13 +3649,13 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>70</v>
+        <v>94</v>
       </c>
       <c r="B48" t="s">
-        <v>71</v>
+        <v>95</v>
       </c>
       <c r="C48" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D48" t="s">
         <v>2</v>
@@ -3664,16 +3664,16 @@
         <v>524</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>533</v>
+        <v>524</v>
+      </c>
+      <c r="G48" s="5" t="s">
+        <v>518</v>
       </c>
       <c r="H48" s="1" t="s">
         <v>504</v>
       </c>
       <c r="I48" s="8" t="s">
-        <v>440</v>
+        <v>450</v>
       </c>
       <c r="J48" s="1" t="s">
         <v>534</v>
@@ -3684,13 +3684,13 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="B49" t="s">
-        <v>73</v>
+        <v>97</v>
       </c>
       <c r="C49" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D49" t="s">
         <v>2</v>
@@ -3699,16 +3699,16 @@
         <v>524</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>533</v>
+        <v>524</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>509</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="I49" s="8" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="J49" s="1" t="s">
         <v>534</v>
@@ -3719,45 +3719,45 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="B50" t="s">
-        <v>75</v>
+        <v>99</v>
       </c>
       <c r="C50" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="G50" s="4" t="s">
-        <v>509</v>
+        <v>525</v>
+      </c>
+      <c r="G50" s="6" t="s">
+        <v>517</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="I50" s="8" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>525</v>
+        <v>534</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>510</v>
+        <v>534</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="B51" t="s">
-        <v>77</v>
+        <v>101</v>
       </c>
       <c r="C51" t="s">
         <v>380</v>
@@ -3771,14 +3771,14 @@
       <c r="F51" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="G51" s="4" t="s">
-        <v>509</v>
+      <c r="G51" s="5" t="s">
+        <v>518</v>
       </c>
       <c r="H51" s="1" t="s">
         <v>504</v>
       </c>
       <c r="I51" s="8" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J51" s="1" t="s">
         <v>534</v>
@@ -3789,13 +3789,13 @@
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>78</v>
+        <v>104</v>
       </c>
       <c r="B52" t="s">
-        <v>79</v>
+        <v>105</v>
       </c>
       <c r="C52" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D52" t="s">
         <v>2</v>
@@ -3806,14 +3806,14 @@
       <c r="F52" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="G52" t="s">
+      <c r="G52" s="5" t="s">
         <v>518</v>
       </c>
       <c r="H52" s="1" t="s">
         <v>504</v>
       </c>
       <c r="I52" s="8" t="s">
-        <v>431</v>
+        <v>449</v>
       </c>
       <c r="J52" s="1" t="s">
         <v>534</v>
@@ -3824,13 +3824,13 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>80</v>
+        <v>106</v>
       </c>
       <c r="B53" t="s">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="C53" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D53" t="s">
         <v>2</v>
@@ -3839,16 +3839,16 @@
         <v>524</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="G53" s="4" t="s">
         <v>509</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="I53" s="8" t="s">
-        <v>444</v>
+        <v>451</v>
       </c>
       <c r="J53" s="1" t="s">
         <v>534</v>
@@ -3859,10 +3859,10 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>82</v>
+        <v>112</v>
       </c>
       <c r="B54" t="s">
-        <v>83</v>
+        <v>113</v>
       </c>
       <c r="C54" t="s">
         <v>380</v>
@@ -3874,16 +3874,16 @@
         <v>524</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="H54" s="1" t="s">
         <v>504</v>
       </c>
       <c r="I54" s="8" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="J54" s="1" t="s">
         <v>534</v>
@@ -3894,10 +3894,10 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>84</v>
+        <v>117</v>
       </c>
       <c r="B55" t="s">
-        <v>85</v>
+        <v>118</v>
       </c>
       <c r="C55" t="s">
         <v>380</v>
@@ -3918,7 +3918,7 @@
         <v>508</v>
       </c>
       <c r="I55" s="8" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="J55" s="1" t="s">
         <v>534</v>
@@ -3929,19 +3929,19 @@
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>86</v>
+        <v>119</v>
       </c>
       <c r="B56" t="s">
-        <v>87</v>
+        <v>120</v>
       </c>
       <c r="C56" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D56" t="s">
         <v>2</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="F56" s="1" t="s">
         <v>524</v>
@@ -3950,10 +3950,10 @@
         <v>509</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="I56" s="8" t="s">
-        <v>447</v>
+        <v>454</v>
       </c>
       <c r="J56" s="1" t="s">
         <v>534</v>
@@ -3964,13 +3964,13 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>88</v>
+        <v>121</v>
       </c>
       <c r="B57" t="s">
-        <v>89</v>
+        <v>122</v>
       </c>
       <c r="C57" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D57" t="s">
         <v>2</v>
@@ -3979,16 +3979,16 @@
         <v>524</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="G57" s="5" t="s">
-        <v>518</v>
+        <v>524</v>
+      </c>
+      <c r="G57" s="4" t="s">
+        <v>509</v>
       </c>
       <c r="H57" s="1" t="s">
         <v>508</v>
       </c>
       <c r="I57" s="8" t="s">
-        <v>448</v>
+        <v>436</v>
       </c>
       <c r="J57" s="1" t="s">
         <v>534</v>
@@ -3999,66 +3999,66 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>90</v>
+        <v>125</v>
       </c>
       <c r="B58" t="s">
-        <v>91</v>
+        <v>126</v>
       </c>
       <c r="C58" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>524</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="G58" s="5" t="s">
         <v>518</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="I58" s="8" t="s">
-        <v>449</v>
+        <v>431</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>524</v>
+        <v>534</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>512</v>
+        <v>534</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>94</v>
+        <v>131</v>
       </c>
       <c r="B59" t="s">
-        <v>95</v>
+        <v>132</v>
       </c>
       <c r="C59" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D59" t="s">
         <v>2</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="G59" s="5" t="s">
-        <v>518</v>
+        <v>525</v>
+      </c>
+      <c r="G59" s="4" t="s">
+        <v>509</v>
       </c>
       <c r="H59" s="1" t="s">
         <v>504</v>
       </c>
       <c r="I59" s="8" t="s">
-        <v>450</v>
+        <v>427</v>
       </c>
       <c r="J59" s="1" t="s">
         <v>534</v>
@@ -4069,10 +4069,10 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>96</v>
+        <v>133</v>
       </c>
       <c r="B60" t="s">
-        <v>97</v>
+        <v>134</v>
       </c>
       <c r="C60" t="s">
         <v>380</v>
@@ -4081,19 +4081,19 @@
         <v>2</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="G60" s="4" t="s">
         <v>509</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="I60" s="8" t="s">
-        <v>442</v>
+        <v>458</v>
       </c>
       <c r="J60" s="1" t="s">
         <v>534</v>
@@ -4104,31 +4104,31 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>98</v>
+        <v>136</v>
       </c>
       <c r="B61" t="s">
-        <v>99</v>
+        <v>137</v>
       </c>
       <c r="C61" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D61" t="s">
         <v>2</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="F61" s="1" t="s">
         <v>525</v>
       </c>
-      <c r="G61" s="6" t="s">
-        <v>517</v>
+      <c r="G61" s="4" t="s">
+        <v>503</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="I61" s="8" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="J61" s="1" t="s">
         <v>534</v>
@@ -4139,10 +4139,10 @@
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="B62" t="s">
-        <v>101</v>
+        <v>141</v>
       </c>
       <c r="C62" t="s">
         <v>380</v>
@@ -4151,19 +4151,19 @@
         <v>2</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="F62" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="G62" s="5" t="s">
-        <v>518</v>
+      <c r="G62" s="4" t="s">
+        <v>503</v>
       </c>
       <c r="H62" s="1" t="s">
         <v>504</v>
       </c>
       <c r="I62" s="8" t="s">
-        <v>442</v>
+        <v>459</v>
       </c>
       <c r="J62" s="1" t="s">
         <v>534</v>
@@ -4174,54 +4174,54 @@
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>102</v>
+        <v>142</v>
       </c>
       <c r="B63" t="s">
-        <v>103</v>
+        <v>143</v>
       </c>
       <c r="C63" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>524</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="G63" s="5" t="s">
         <v>518</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="I63" s="8" t="s">
-        <v>449</v>
+        <v>431</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>524</v>
+        <v>534</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>511</v>
+        <v>534</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>104</v>
+        <v>144</v>
       </c>
       <c r="B64" t="s">
-        <v>105</v>
+        <v>145</v>
       </c>
       <c r="C64" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D64" t="s">
         <v>2</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="F64" s="1" t="s">
         <v>524</v>
@@ -4230,10 +4230,10 @@
         <v>518</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="I64" s="8" t="s">
-        <v>449</v>
+        <v>415</v>
       </c>
       <c r="J64" s="1" t="s">
         <v>534</v>
@@ -4244,10 +4244,10 @@
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>106</v>
+        <v>146</v>
       </c>
       <c r="B65" t="s">
-        <v>107</v>
+        <v>147</v>
       </c>
       <c r="C65" t="s">
         <v>379</v>
@@ -4256,19 +4256,19 @@
         <v>2</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="G65" s="4" t="s">
-        <v>509</v>
+        <v>525</v>
+      </c>
+      <c r="G65" s="5" t="s">
+        <v>518</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="I65" s="8" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
       <c r="J65" s="1" t="s">
         <v>534</v>
@@ -4279,16 +4279,16 @@
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>108</v>
+        <v>148</v>
       </c>
       <c r="B66" t="s">
-        <v>109</v>
+        <v>149</v>
       </c>
       <c r="C66" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>524</v>
@@ -4296,84 +4296,84 @@
       <c r="F66" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="G66" s="4" t="s">
-        <v>533</v>
+      <c r="G66" s="5" t="s">
+        <v>518</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="I66" s="8" t="s">
-        <v>418</v>
+        <v>431</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>524</v>
+        <v>534</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>516</v>
+        <v>534</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="B67" t="s">
-        <v>111</v>
+        <v>151</v>
       </c>
       <c r="C67" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>524</v>
+        <v>533</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="G67" s="4" t="s">
-        <v>509</v>
+        <v>525</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>533</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>504</v>
+        <v>533</v>
       </c>
       <c r="I67" s="8" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>524</v>
+        <v>534</v>
       </c>
       <c r="K67" s="1" t="s">
-        <v>511</v>
+        <v>534</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>112</v>
+        <v>152</v>
       </c>
       <c r="B68" t="s">
-        <v>113</v>
+        <v>153</v>
       </c>
       <c r="C68" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D68" t="s">
         <v>2</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>524</v>
+        <v>533</v>
       </c>
       <c r="F68" s="1" t="s">
         <v>525</v>
       </c>
-      <c r="G68" s="4" t="s">
-        <v>503</v>
+      <c r="G68" s="1" t="s">
+        <v>533</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>504</v>
+        <v>533</v>
       </c>
       <c r="I68" s="8" t="s">
-        <v>440</v>
+        <v>461</v>
       </c>
       <c r="J68" s="1" t="s">
         <v>534</v>
@@ -4384,66 +4384,66 @@
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>115</v>
+        <v>154</v>
       </c>
       <c r="B69" t="s">
-        <v>116</v>
+        <v>155</v>
       </c>
       <c r="C69" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>524</v>
+        <v>533</v>
       </c>
       <c r="F69" s="1" t="s">
         <v>525</v>
       </c>
-      <c r="G69" s="4" t="s">
-        <v>503</v>
+      <c r="G69" s="1" t="s">
+        <v>533</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>505</v>
+        <v>533</v>
       </c>
       <c r="I69" s="8" t="s">
-        <v>453</v>
+        <v>461</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>525</v>
+        <v>534</v>
       </c>
       <c r="K69" s="1" t="s">
-        <v>506</v>
+        <v>534</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>117</v>
+        <v>158</v>
       </c>
       <c r="B70" t="s">
-        <v>118</v>
+        <v>159</v>
       </c>
       <c r="C70" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D70" t="s">
         <v>2</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>525</v>
+        <v>533</v>
       </c>
       <c r="F70" s="1" t="s">
         <v>525</v>
       </c>
-      <c r="G70" s="5" t="s">
-        <v>518</v>
+      <c r="G70" s="1" t="s">
+        <v>533</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>508</v>
+        <v>533</v>
       </c>
       <c r="I70" s="8" t="s">
-        <v>449</v>
+        <v>461</v>
       </c>
       <c r="J70" s="1" t="s">
         <v>534</v>
@@ -4454,19 +4454,19 @@
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>119</v>
+        <v>160</v>
       </c>
       <c r="B71" t="s">
-        <v>120</v>
+        <v>161</v>
       </c>
       <c r="C71" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D71" t="s">
         <v>2</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="F71" s="1" t="s">
         <v>524</v>
@@ -4475,10 +4475,10 @@
         <v>509</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="I71" s="8" t="s">
-        <v>454</v>
+        <v>439</v>
       </c>
       <c r="J71" s="1" t="s">
         <v>534</v>
@@ -4489,13 +4489,13 @@
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>121</v>
+        <v>162</v>
       </c>
       <c r="B72" t="s">
-        <v>122</v>
+        <v>163</v>
       </c>
       <c r="C72" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D72" t="s">
         <v>2</v>
@@ -4510,10 +4510,10 @@
         <v>509</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="I72" s="8" t="s">
-        <v>436</v>
+        <v>458</v>
       </c>
       <c r="J72" s="1" t="s">
         <v>534</v>
@@ -4524,45 +4524,45 @@
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>123</v>
+        <v>164</v>
       </c>
       <c r="B73" t="s">
-        <v>124</v>
+        <v>165</v>
       </c>
       <c r="C73" t="s">
         <v>380</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="F73" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="G73" s="4" t="s">
-        <v>509</v>
+      <c r="G73" s="5" t="s">
+        <v>518</v>
       </c>
       <c r="H73" s="1" t="s">
         <v>504</v>
       </c>
       <c r="I73" s="8" t="s">
-        <v>455</v>
+        <v>462</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>524</v>
+        <v>534</v>
       </c>
       <c r="K73" s="1" t="s">
-        <v>512</v>
+        <v>534</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>125</v>
+        <v>166</v>
       </c>
       <c r="B74" t="s">
-        <v>126</v>
+        <v>167</v>
       </c>
       <c r="C74" t="s">
         <v>379</v>
@@ -4594,66 +4594,66 @@
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>127</v>
+        <v>168</v>
       </c>
       <c r="B75" t="s">
-        <v>128</v>
+        <v>169</v>
       </c>
       <c r="C75" t="s">
         <v>380</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="F75" s="1" t="s">
         <v>525</v>
       </c>
       <c r="G75" s="4" t="s">
-        <v>509</v>
+        <v>517</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="I75" s="8" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>524</v>
+        <v>534</v>
       </c>
       <c r="K75" s="1" t="s">
-        <v>513</v>
+        <v>534</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>129</v>
+        <v>170</v>
       </c>
       <c r="B76" t="s">
-        <v>130</v>
+        <v>171</v>
       </c>
       <c r="C76" t="s">
         <v>380</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E76" s="1" t="s">
         <v>524</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="G76" s="4" t="s">
-        <v>509</v>
+        <v>524</v>
+      </c>
+      <c r="G76" s="5" t="s">
+        <v>518</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="I76" s="8" t="s">
-        <v>457</v>
+        <v>464</v>
       </c>
       <c r="J76" s="1" t="s">
         <v>534</v>
@@ -4664,10 +4664,10 @@
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>131</v>
+        <v>176</v>
       </c>
       <c r="B77" t="s">
-        <v>132</v>
+        <v>177</v>
       </c>
       <c r="C77" t="s">
         <v>380</v>
@@ -4676,19 +4676,19 @@
         <v>2</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="F77" s="1" t="s">
         <v>525</v>
       </c>
       <c r="G77" s="4" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="I77" s="8" t="s">
-        <v>427</v>
+        <v>466</v>
       </c>
       <c r="J77" s="1" t="s">
         <v>534</v>
@@ -4699,10 +4699,10 @@
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>133</v>
+        <v>179</v>
       </c>
       <c r="B78" t="s">
-        <v>134</v>
+        <v>180</v>
       </c>
       <c r="C78" t="s">
         <v>380</v>
@@ -4711,19 +4711,19 @@
         <v>2</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="F78" s="1" t="s">
         <v>525</v>
       </c>
       <c r="G78" s="4" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="H78" s="1" t="s">
         <v>507</v>
       </c>
       <c r="I78" s="8" t="s">
-        <v>458</v>
+        <v>466</v>
       </c>
       <c r="J78" s="1" t="s">
         <v>534</v>
@@ -4734,10 +4734,10 @@
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>136</v>
+        <v>181</v>
       </c>
       <c r="B79" t="s">
-        <v>137</v>
+        <v>182</v>
       </c>
       <c r="C79" t="s">
         <v>380</v>
@@ -4746,19 +4746,19 @@
         <v>2</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="G79" s="4" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="I79" s="8" t="s">
-        <v>440</v>
+        <v>417</v>
       </c>
       <c r="J79" s="1" t="s">
         <v>534</v>
@@ -4769,45 +4769,45 @@
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>138</v>
+        <v>183</v>
       </c>
       <c r="B80" t="s">
-        <v>139</v>
+        <v>184</v>
       </c>
       <c r="C80" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E80" s="1" t="s">
         <v>524</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="G80" s="4" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="I80" s="8" t="s">
-        <v>457</v>
+        <v>467</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>524</v>
+        <v>534</v>
       </c>
       <c r="K80" s="1" t="s">
-        <v>511</v>
+        <v>534</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>140</v>
+        <v>185</v>
       </c>
       <c r="B81" t="s">
-        <v>141</v>
+        <v>186</v>
       </c>
       <c r="C81" t="s">
         <v>380</v>
@@ -4822,13 +4822,13 @@
         <v>524</v>
       </c>
       <c r="G81" s="4" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="H81" s="1" t="s">
         <v>504</v>
       </c>
       <c r="I81" s="8" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
       <c r="J81" s="1" t="s">
         <v>534</v>
@@ -4839,10 +4839,10 @@
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>142</v>
+        <v>189</v>
       </c>
       <c r="B82" t="s">
-        <v>143</v>
+        <v>190</v>
       </c>
       <c r="C82" t="s">
         <v>379</v>
@@ -4856,14 +4856,14 @@
       <c r="F82" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="G82" s="5" t="s">
-        <v>518</v>
+      <c r="G82" s="6" t="s">
+        <v>517</v>
       </c>
       <c r="H82" s="1" t="s">
         <v>505</v>
       </c>
       <c r="I82" s="8" t="s">
-        <v>431</v>
+        <v>415</v>
       </c>
       <c r="J82" s="1" t="s">
         <v>534</v>
@@ -4874,31 +4874,31 @@
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>144</v>
+        <v>191</v>
       </c>
       <c r="B83" t="s">
-        <v>145</v>
+        <v>192</v>
       </c>
       <c r="C83" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D83" t="s">
         <v>2</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>525</v>
+        <v>533</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="G83" s="5" t="s">
-        <v>518</v>
+        <v>533</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>533</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>507</v>
+        <v>533</v>
       </c>
       <c r="I83" s="8" t="s">
-        <v>415</v>
+        <v>533</v>
       </c>
       <c r="J83" s="1" t="s">
         <v>534</v>
@@ -4909,10 +4909,10 @@
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>146</v>
+        <v>193</v>
       </c>
       <c r="B84" t="s">
-        <v>147</v>
+        <v>194</v>
       </c>
       <c r="C84" t="s">
         <v>379</v>
@@ -4924,16 +4924,16 @@
         <v>525</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="G84" s="5" t="s">
-        <v>518</v>
+        <v>524</v>
+      </c>
+      <c r="G84" s="4" t="s">
+        <v>503</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="I84" s="8" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
       <c r="J84" s="1" t="s">
         <v>534</v>
@@ -4944,10 +4944,10 @@
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>148</v>
+        <v>199</v>
       </c>
       <c r="B85" t="s">
-        <v>149</v>
+        <v>200</v>
       </c>
       <c r="C85" t="s">
         <v>379</v>
@@ -4956,19 +4956,19 @@
         <v>2</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="F85" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="G85" s="5" t="s">
-        <v>518</v>
+      <c r="G85" s="3">
+        <v>31</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="I85" s="8" t="s">
-        <v>431</v>
+        <v>439</v>
       </c>
       <c r="J85" s="1" t="s">
         <v>534</v>
@@ -4979,31 +4979,31 @@
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>150</v>
+        <v>203</v>
       </c>
       <c r="B86" t="s">
-        <v>151</v>
+        <v>204</v>
       </c>
       <c r="C86" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D86" t="s">
         <v>2</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="G86" s="1" t="s">
-        <v>533</v>
+        <v>524</v>
+      </c>
+      <c r="G86" s="4" t="s">
+        <v>517</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>533</v>
+        <v>507</v>
       </c>
       <c r="I86" s="8" t="s">
-        <v>461</v>
+        <v>446</v>
       </c>
       <c r="J86" s="1" t="s">
         <v>534</v>
@@ -5014,31 +5014,31 @@
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>152</v>
+        <v>205</v>
       </c>
       <c r="B87" t="s">
-        <v>153</v>
+        <v>206</v>
       </c>
       <c r="C87" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D87" t="s">
         <v>2</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="G87" s="1" t="s">
-        <v>533</v>
+        <v>524</v>
+      </c>
+      <c r="G87" s="5" t="s">
+        <v>518</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>533</v>
+        <v>507</v>
       </c>
       <c r="I87" s="8" t="s">
-        <v>461</v>
+        <v>473</v>
       </c>
       <c r="J87" s="1" t="s">
         <v>534</v>
@@ -5049,10 +5049,10 @@
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>154</v>
+        <v>207</v>
       </c>
       <c r="B88" t="s">
-        <v>155</v>
+        <v>208</v>
       </c>
       <c r="C88" t="s">
         <v>379</v>
@@ -5061,19 +5061,19 @@
         <v>2</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>533</v>
+        <v>524</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="G88" s="1" t="s">
-        <v>533</v>
+        <v>524</v>
+      </c>
+      <c r="G88" s="3">
+        <v>7</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>533</v>
+        <v>505</v>
       </c>
       <c r="I88" s="8" t="s">
-        <v>461</v>
+        <v>431</v>
       </c>
       <c r="J88" s="1" t="s">
         <v>534</v>
@@ -5084,31 +5084,31 @@
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>158</v>
+        <v>211</v>
       </c>
       <c r="B89" t="s">
-        <v>159</v>
+        <v>212</v>
       </c>
       <c r="C89" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D89" t="s">
         <v>2</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>533</v>
+        <v>524</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="G89" s="1" t="s">
-        <v>533</v>
+        <v>524</v>
+      </c>
+      <c r="G89" s="4" t="s">
+        <v>503</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>533</v>
+        <v>508</v>
       </c>
       <c r="I89" s="8" t="s">
-        <v>461</v>
+        <v>474</v>
       </c>
       <c r="J89" s="1" t="s">
         <v>534</v>
@@ -5119,13 +5119,13 @@
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>160</v>
+        <v>215</v>
       </c>
       <c r="B90" t="s">
-        <v>161</v>
+        <v>216</v>
       </c>
       <c r="C90" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D90" t="s">
         <v>2</v>
@@ -5134,16 +5134,16 @@
         <v>524</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="G90" s="4" t="s">
-        <v>509</v>
+        <v>525</v>
+      </c>
+      <c r="G90" s="5" t="s">
+        <v>518</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="I90" s="8" t="s">
-        <v>439</v>
+        <v>418</v>
       </c>
       <c r="J90" s="1" t="s">
         <v>534</v>
@@ -5154,31 +5154,31 @@
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>162</v>
+        <v>219</v>
       </c>
       <c r="B91" t="s">
-        <v>163</v>
+        <v>220</v>
       </c>
       <c r="C91" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D91" t="s">
         <v>2</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="F91" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="G91" s="4" t="s">
-        <v>509</v>
+      <c r="G91" s="3">
+        <v>6</v>
       </c>
       <c r="H91" s="1" t="s">
         <v>504</v>
       </c>
       <c r="I91" s="8" t="s">
-        <v>458</v>
+        <v>415</v>
       </c>
       <c r="J91" s="1" t="s">
         <v>534</v>
@@ -5189,10 +5189,10 @@
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>164</v>
+        <v>223</v>
       </c>
       <c r="B92" t="s">
-        <v>165</v>
+        <v>224</v>
       </c>
       <c r="C92" t="s">
         <v>380</v>
@@ -5206,14 +5206,14 @@
       <c r="F92" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="G92" s="5" t="s">
-        <v>518</v>
+      <c r="G92" s="4" t="s">
+        <v>509</v>
       </c>
       <c r="H92" s="1" t="s">
         <v>504</v>
       </c>
       <c r="I92" s="8" t="s">
-        <v>462</v>
+        <v>475</v>
       </c>
       <c r="J92" s="1" t="s">
         <v>534</v>
@@ -5224,31 +5224,31 @@
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>166</v>
+        <v>225</v>
       </c>
       <c r="B93" t="s">
-        <v>167</v>
+        <v>226</v>
       </c>
       <c r="C93" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D93" t="s">
         <v>2</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="G93" s="5" t="s">
-        <v>518</v>
+        <v>525</v>
+      </c>
+      <c r="G93" s="4" t="s">
+        <v>509</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>505</v>
+        <v>514</v>
       </c>
       <c r="I93" s="8" t="s">
-        <v>431</v>
+        <v>476</v>
       </c>
       <c r="J93" s="1" t="s">
         <v>534</v>
@@ -5259,10 +5259,10 @@
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>168</v>
+        <v>227</v>
       </c>
       <c r="B94" t="s">
-        <v>169</v>
+        <v>228</v>
       </c>
       <c r="C94" t="s">
         <v>380</v>
@@ -5271,19 +5271,19 @@
         <v>2</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="F94" s="1" t="s">
         <v>525</v>
       </c>
-      <c r="G94" s="4" t="s">
-        <v>517</v>
+      <c r="G94" s="5" t="s">
+        <v>518</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="I94" s="8" t="s">
-        <v>463</v>
+        <v>418</v>
       </c>
       <c r="J94" s="1" t="s">
         <v>534</v>
@@ -5294,10 +5294,10 @@
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>170</v>
+        <v>229</v>
       </c>
       <c r="B95" t="s">
-        <v>171</v>
+        <v>230</v>
       </c>
       <c r="C95" t="s">
         <v>380</v>
@@ -5318,7 +5318,7 @@
         <v>508</v>
       </c>
       <c r="I95" s="8" t="s">
-        <v>464</v>
+        <v>446</v>
       </c>
       <c r="J95" s="1" t="s">
         <v>534</v>
@@ -5329,66 +5329,66 @@
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>172</v>
+        <v>231</v>
       </c>
       <c r="B96" t="s">
-        <v>173</v>
+        <v>232</v>
       </c>
       <c r="C96" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D96" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="F96" s="1" t="s">
         <v>524</v>
       </c>
       <c r="G96" s="4" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>505</v>
+        <v>514</v>
       </c>
       <c r="I96" s="8" t="s">
-        <v>465</v>
+        <v>426</v>
       </c>
       <c r="J96" s="1" t="s">
-        <v>525</v>
+        <v>534</v>
       </c>
       <c r="K96" s="1" t="s">
-        <v>520</v>
+        <v>534</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>174</v>
+        <v>233</v>
       </c>
       <c r="B97" t="s">
-        <v>175</v>
+        <v>234</v>
       </c>
       <c r="C97" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D97" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E97" s="1" t="s">
         <v>524</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="G97" s="5" t="s">
-        <v>518</v>
+        <v>524</v>
+      </c>
+      <c r="G97" s="6" t="s">
+        <v>517</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="I97" s="8" t="s">
-        <v>417</v>
+        <v>431</v>
       </c>
       <c r="J97" s="1" t="s">
         <v>534</v>
@@ -5399,31 +5399,31 @@
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>176</v>
+        <v>235</v>
       </c>
       <c r="B98" t="s">
-        <v>177</v>
+        <v>236</v>
       </c>
       <c r="C98" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D98" t="s">
         <v>2</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="G98" s="4" t="s">
-        <v>503</v>
+        <v>524</v>
+      </c>
+      <c r="G98" s="3">
+        <v>14</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="I98" s="8" t="s">
-        <v>466</v>
+        <v>477</v>
       </c>
       <c r="J98" s="1" t="s">
         <v>534</v>
@@ -5434,10 +5434,10 @@
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>179</v>
+        <v>239</v>
       </c>
       <c r="B99" t="s">
-        <v>180</v>
+        <v>240</v>
       </c>
       <c r="C99" t="s">
         <v>380</v>
@@ -5449,16 +5449,16 @@
         <v>524</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="G99" s="4" t="s">
-        <v>503</v>
+        <v>524</v>
+      </c>
+      <c r="G99" s="5" t="s">
+        <v>518</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="I99" s="8" t="s">
-        <v>466</v>
+        <v>473</v>
       </c>
       <c r="J99" s="1" t="s">
         <v>534</v>
@@ -5469,10 +5469,10 @@
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>181</v>
+        <v>241</v>
       </c>
       <c r="B100" t="s">
-        <v>182</v>
+        <v>242</v>
       </c>
       <c r="C100" t="s">
         <v>380</v>
@@ -5481,7 +5481,7 @@
         <v>2</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="F100" s="1" t="s">
         <v>524</v>
@@ -5490,10 +5490,10 @@
         <v>509</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="I100" s="8" t="s">
-        <v>417</v>
+        <v>472</v>
       </c>
       <c r="J100" s="1" t="s">
         <v>534</v>
@@ -5504,31 +5504,31 @@
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>183</v>
+        <v>243</v>
       </c>
       <c r="B101" t="s">
-        <v>184</v>
+        <v>244</v>
       </c>
       <c r="C101" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D101" t="s">
         <v>2</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="G101" s="4" t="s">
-        <v>503</v>
+        <v>525</v>
+      </c>
+      <c r="G101" s="3">
+        <v>9</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="I101" s="8" t="s">
-        <v>467</v>
+        <v>478</v>
       </c>
       <c r="J101" s="1" t="s">
         <v>534</v>
@@ -5539,13 +5539,13 @@
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>185</v>
+        <v>245</v>
       </c>
       <c r="B102" t="s">
-        <v>186</v>
+        <v>246</v>
       </c>
       <c r="C102" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D102" t="s">
         <v>2</v>
@@ -5554,16 +5554,16 @@
         <v>524</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="G102" s="4" t="s">
-        <v>509</v>
+        <v>525</v>
+      </c>
+      <c r="G102" s="6" t="s">
+        <v>517</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="I102" s="8" t="s">
-        <v>449</v>
+        <v>431</v>
       </c>
       <c r="J102" s="1" t="s">
         <v>534</v>
@@ -5574,31 +5574,31 @@
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>187</v>
+        <v>247</v>
       </c>
       <c r="B103" t="s">
-        <v>188</v>
+        <v>248</v>
       </c>
       <c r="C103" t="s">
         <v>379</v>
       </c>
       <c r="D103" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E103" s="1" t="s">
         <v>524</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="G103" s="4" t="s">
-        <v>509</v>
+        <v>525</v>
+      </c>
+      <c r="G103" s="3">
+        <v>7</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="I103" s="8" t="s">
-        <v>468</v>
+        <v>431</v>
       </c>
       <c r="J103" s="1" t="s">
         <v>534</v>
@@ -5609,10 +5609,10 @@
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>189</v>
+        <v>249</v>
       </c>
       <c r="B104" t="s">
-        <v>190</v>
+        <v>250</v>
       </c>
       <c r="C104" t="s">
         <v>379</v>
@@ -5621,19 +5621,19 @@
         <v>2</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>524</v>
+        <v>533</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="G104" s="6" t="s">
-        <v>517</v>
+        <v>525</v>
+      </c>
+      <c r="G104" s="3" t="s">
+        <v>533</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>505</v>
+        <v>533</v>
       </c>
       <c r="I104" s="8" t="s">
-        <v>415</v>
+        <v>461</v>
       </c>
       <c r="J104" s="1" t="s">
         <v>534</v>
@@ -5644,13 +5644,13 @@
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>191</v>
+        <v>251</v>
       </c>
       <c r="B105" t="s">
-        <v>192</v>
+        <v>252</v>
       </c>
       <c r="C105" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D105" t="s">
         <v>2</v>
@@ -5659,7 +5659,7 @@
         <v>533</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="G105" s="3" t="s">
         <v>533</v>
@@ -5668,7 +5668,7 @@
         <v>533</v>
       </c>
       <c r="I105" s="8" t="s">
-        <v>533</v>
+        <v>461</v>
       </c>
       <c r="J105" s="1" t="s">
         <v>534</v>
@@ -5679,10 +5679,10 @@
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>193</v>
+        <v>253</v>
       </c>
       <c r="B106" t="s">
-        <v>194</v>
+        <v>254</v>
       </c>
       <c r="C106" t="s">
         <v>379</v>
@@ -5691,19 +5691,19 @@
         <v>2</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="G106" s="4" t="s">
-        <v>503</v>
+        <v>525</v>
+      </c>
+      <c r="G106" s="3">
+        <v>16</v>
       </c>
       <c r="H106" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="I106" s="8" t="s">
-        <v>469</v>
+        <v>460</v>
       </c>
       <c r="J106" s="1" t="s">
         <v>534</v>
@@ -5714,16 +5714,16 @@
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>195</v>
+        <v>257</v>
       </c>
       <c r="B107" t="s">
-        <v>196</v>
+        <v>258</v>
       </c>
       <c r="C107" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D107" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E107" s="1" t="s">
         <v>524</v>
@@ -5731,63 +5731,63 @@
       <c r="F107" s="1" t="s">
         <v>525</v>
       </c>
-      <c r="G107" s="5" t="s">
-        <v>518</v>
+      <c r="G107" s="3">
+        <v>7</v>
       </c>
       <c r="H107" s="1" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="I107" s="8" t="s">
-        <v>470</v>
+        <v>479</v>
       </c>
       <c r="J107" s="1" t="s">
-        <v>524</v>
+        <v>534</v>
       </c>
       <c r="K107" s="1" t="s">
-        <v>519</v>
+        <v>534</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>197</v>
+        <v>259</v>
       </c>
       <c r="B108" t="s">
-        <v>198</v>
+        <v>260</v>
       </c>
       <c r="C108" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D108" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>525</v>
+        <v>533</v>
       </c>
       <c r="F108" s="1" t="s">
         <v>525</v>
       </c>
-      <c r="G108" s="4" t="s">
-        <v>509</v>
+      <c r="G108" s="3" t="s">
+        <v>533</v>
       </c>
       <c r="H108" s="1" t="s">
-        <v>508</v>
+        <v>533</v>
       </c>
       <c r="I108" s="8" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
       <c r="J108" s="1" t="s">
-        <v>524</v>
+        <v>534</v>
       </c>
       <c r="K108" s="1" t="s">
-        <v>511</v>
+        <v>534</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>199</v>
+        <v>261</v>
       </c>
       <c r="B109" t="s">
-        <v>200</v>
+        <v>262</v>
       </c>
       <c r="C109" t="s">
         <v>379</v>
@@ -5796,16 +5796,16 @@
         <v>2</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="F109" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="G109" s="3">
-        <v>31</v>
+      <c r="G109" s="3" t="s">
+        <v>517</v>
       </c>
       <c r="H109" s="1" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="I109" s="8" t="s">
         <v>439</v>
@@ -5819,16 +5819,16 @@
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>201</v>
+        <v>263</v>
       </c>
       <c r="B110" t="s">
-        <v>202</v>
+        <v>264</v>
       </c>
       <c r="C110" t="s">
         <v>380</v>
       </c>
       <c r="D110" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E110" s="1" t="s">
         <v>525</v>
@@ -5836,28 +5836,28 @@
       <c r="F110" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="G110" s="5" t="s">
-        <v>518</v>
+      <c r="G110" s="4" t="s">
+        <v>503</v>
       </c>
       <c r="H110" s="1" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="I110" s="8" t="s">
-        <v>472</v>
+        <v>480</v>
       </c>
       <c r="J110" s="1" t="s">
-        <v>524</v>
+        <v>534</v>
       </c>
       <c r="K110" s="1" t="s">
-        <v>516</v>
+        <v>534</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>203</v>
+        <v>265</v>
       </c>
       <c r="B111" t="s">
-        <v>204</v>
+        <v>266</v>
       </c>
       <c r="C111" t="s">
         <v>380</v>
@@ -5869,16 +5869,16 @@
         <v>525</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="G111" s="4" t="s">
-        <v>517</v>
+        <v>503</v>
       </c>
       <c r="H111" s="1" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="I111" s="8" t="s">
-        <v>446</v>
+        <v>435</v>
       </c>
       <c r="J111" s="1" t="s">
         <v>534</v>
@@ -5889,31 +5889,31 @@
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>205</v>
+        <v>267</v>
       </c>
       <c r="B112" t="s">
-        <v>206</v>
+        <v>268</v>
       </c>
       <c r="C112" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D112" t="s">
         <v>2</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="G112" s="5" t="s">
-        <v>518</v>
+        <v>525</v>
+      </c>
+      <c r="G112" s="3">
+        <v>16</v>
       </c>
       <c r="H112" s="1" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="I112" s="8" t="s">
-        <v>473</v>
+        <v>460</v>
       </c>
       <c r="J112" s="1" t="s">
         <v>534</v>
@@ -5924,10 +5924,10 @@
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>207</v>
+        <v>271</v>
       </c>
       <c r="B113" t="s">
-        <v>208</v>
+        <v>272</v>
       </c>
       <c r="C113" t="s">
         <v>379</v>
@@ -5936,19 +5936,19 @@
         <v>2</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="F113" s="1" t="s">
         <v>524</v>
       </c>
       <c r="G113" s="3">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="H113" s="1" t="s">
-        <v>505</v>
+        <v>533</v>
       </c>
       <c r="I113" s="8" t="s">
-        <v>431</v>
+        <v>482</v>
       </c>
       <c r="J113" s="1" t="s">
         <v>534</v>
@@ -5959,16 +5959,16 @@
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>209</v>
+        <v>273</v>
       </c>
       <c r="B114" t="s">
-        <v>210</v>
+        <v>274</v>
       </c>
       <c r="C114" t="s">
         <v>380</v>
       </c>
       <c r="D114" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E114" s="1" t="s">
         <v>524</v>
@@ -5977,27 +5977,27 @@
         <v>524</v>
       </c>
       <c r="G114" s="4" t="s">
-        <v>517</v>
+        <v>509</v>
       </c>
       <c r="H114" s="1" t="s">
-        <v>507</v>
+        <v>515</v>
       </c>
       <c r="I114" s="8" t="s">
-        <v>435</v>
+        <v>483</v>
       </c>
       <c r="J114" s="1" t="s">
-        <v>524</v>
+        <v>534</v>
       </c>
       <c r="K114" s="1" t="s">
-        <v>516</v>
+        <v>534</v>
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>211</v>
+        <v>275</v>
       </c>
       <c r="B115" t="s">
-        <v>212</v>
+        <v>276</v>
       </c>
       <c r="C115" t="s">
         <v>380</v>
@@ -6011,14 +6011,14 @@
       <c r="F115" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="G115" s="4" t="s">
-        <v>503</v>
+      <c r="G115" s="5" t="s">
+        <v>518</v>
       </c>
       <c r="H115" s="1" t="s">
         <v>508</v>
       </c>
       <c r="I115" s="8" t="s">
-        <v>474</v>
+        <v>464</v>
       </c>
       <c r="J115" s="1" t="s">
         <v>534</v>
@@ -6029,45 +6029,45 @@
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>213</v>
+        <v>277</v>
       </c>
       <c r="B116" t="s">
-        <v>214</v>
+        <v>278</v>
       </c>
       <c r="C116" t="s">
         <v>379</v>
       </c>
       <c r="D116" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="G116" s="3">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="H116" s="1" t="s">
         <v>504</v>
       </c>
       <c r="I116" s="8" t="s">
-        <v>439</v>
+        <v>484</v>
       </c>
       <c r="J116" s="1" t="s">
-        <v>524</v>
+        <v>534</v>
       </c>
       <c r="K116" s="1" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>215</v>
+        <v>281</v>
       </c>
       <c r="B117" t="s">
-        <v>216</v>
+        <v>282</v>
       </c>
       <c r="C117" t="s">
         <v>380</v>
@@ -6085,10 +6085,10 @@
         <v>518</v>
       </c>
       <c r="H117" s="1" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="I117" s="8" t="s">
-        <v>418</v>
+        <v>455</v>
       </c>
       <c r="J117" s="1" t="s">
         <v>534</v>
@@ -6099,16 +6099,16 @@
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>217</v>
+        <v>283</v>
       </c>
       <c r="B118" t="s">
-        <v>218</v>
+        <v>284</v>
       </c>
       <c r="C118" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D118" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E118" s="1" t="s">
         <v>524</v>
@@ -6116,28 +6116,28 @@
       <c r="F118" s="1" t="s">
         <v>525</v>
       </c>
-      <c r="G118" s="4" t="s">
-        <v>509</v>
+      <c r="G118" s="3">
+        <v>3</v>
       </c>
       <c r="H118" s="1" t="s">
         <v>504</v>
       </c>
       <c r="I118" s="8" t="s">
-        <v>411</v>
+        <v>485</v>
       </c>
       <c r="J118" s="1" t="s">
-        <v>524</v>
+        <v>534</v>
       </c>
       <c r="K118" s="1" t="s">
-        <v>512</v>
+        <v>534</v>
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>219</v>
+        <v>287</v>
       </c>
       <c r="B119" t="s">
-        <v>220</v>
+        <v>288</v>
       </c>
       <c r="C119" t="s">
         <v>379</v>
@@ -6146,19 +6146,19 @@
         <v>2</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="G119" s="3">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="H119" s="1" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="I119" s="8" t="s">
-        <v>415</v>
+        <v>439</v>
       </c>
       <c r="J119" s="1" t="s">
         <v>534</v>
@@ -6169,16 +6169,16 @@
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>221</v>
+        <v>289</v>
       </c>
       <c r="B120" t="s">
-        <v>222</v>
+        <v>290</v>
       </c>
       <c r="C120" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D120" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E120" s="1" t="s">
         <v>524</v>
@@ -6186,28 +6186,28 @@
       <c r="F120" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="G120" s="5" t="s">
-        <v>518</v>
+      <c r="G120" s="3">
+        <v>6</v>
       </c>
       <c r="H120" s="1" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="I120" s="8" t="s">
-        <v>445</v>
+        <v>486</v>
       </c>
       <c r="J120" s="1" t="s">
-        <v>525</v>
+        <v>534</v>
       </c>
       <c r="K120" s="1" t="s">
-        <v>520</v>
+        <v>534</v>
       </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>223</v>
+        <v>291</v>
       </c>
       <c r="B121" t="s">
-        <v>224</v>
+        <v>292</v>
       </c>
       <c r="C121" t="s">
         <v>380</v>
@@ -6216,19 +6216,19 @@
         <v>2</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>525</v>
+        <v>533</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>524</v>
+        <v>533</v>
       </c>
       <c r="G121" s="4" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="H121" s="1" t="s">
         <v>504</v>
       </c>
       <c r="I121" s="8" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="J121" s="1" t="s">
         <v>534</v>
@@ -6239,31 +6239,31 @@
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>225</v>
+        <v>293</v>
       </c>
       <c r="B122" t="s">
-        <v>226</v>
+        <v>294</v>
       </c>
       <c r="C122" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D122" t="s">
         <v>2</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="G122" s="4" t="s">
-        <v>509</v>
+        <v>524</v>
+      </c>
+      <c r="G122" s="7">
+        <v>18</v>
       </c>
       <c r="H122" s="1" t="s">
-        <v>514</v>
+        <v>504</v>
       </c>
       <c r="I122" s="8" t="s">
-        <v>476</v>
+        <v>487</v>
       </c>
       <c r="J122" s="1" t="s">
         <v>534</v>
@@ -6274,13 +6274,13 @@
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>227</v>
+        <v>295</v>
       </c>
       <c r="B123" t="s">
-        <v>228</v>
+        <v>296</v>
       </c>
       <c r="C123" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D123" t="s">
         <v>2</v>
@@ -6289,16 +6289,16 @@
         <v>525</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="G123" s="5" t="s">
-        <v>518</v>
+        <v>524</v>
+      </c>
+      <c r="G123" s="7">
+        <v>27</v>
       </c>
       <c r="H123" s="1" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="I123" s="8" t="s">
-        <v>418</v>
+        <v>488</v>
       </c>
       <c r="J123" s="1" t="s">
         <v>534</v>
@@ -6309,13 +6309,13 @@
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>229</v>
+        <v>299</v>
       </c>
       <c r="B124" t="s">
-        <v>230</v>
+        <v>300</v>
       </c>
       <c r="C124" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D124" t="s">
         <v>2</v>
@@ -6324,16 +6324,16 @@
         <v>524</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="G124" s="5" t="s">
-        <v>518</v>
+        <v>525</v>
+      </c>
+      <c r="G124" s="7">
+        <v>7</v>
       </c>
       <c r="H124" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="I124" s="8" t="s">
-        <v>446</v>
+        <v>489</v>
       </c>
       <c r="J124" s="1" t="s">
         <v>534</v>
@@ -6344,10 +6344,10 @@
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>231</v>
+        <v>305</v>
       </c>
       <c r="B125" t="s">
-        <v>232</v>
+        <v>306</v>
       </c>
       <c r="C125" t="s">
         <v>380</v>
@@ -6359,16 +6359,16 @@
         <v>525</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="G125" s="4" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="H125" s="1" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="I125" s="8" t="s">
-        <v>426</v>
+        <v>490</v>
       </c>
       <c r="J125" s="1" t="s">
         <v>534</v>
@@ -6379,31 +6379,31 @@
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>233</v>
+        <v>307</v>
       </c>
       <c r="B126" t="s">
-        <v>234</v>
+        <v>308</v>
       </c>
       <c r="C126" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="D126" t="s">
         <v>2</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="G126" s="6" t="s">
-        <v>517</v>
+        <v>525</v>
+      </c>
+      <c r="G126" s="3">
+        <v>3</v>
       </c>
       <c r="H126" s="1" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="I126" s="8" t="s">
-        <v>431</v>
+        <v>485</v>
       </c>
       <c r="J126" s="1" t="s">
         <v>534</v>
@@ -6414,10 +6414,10 @@
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>235</v>
+        <v>309</v>
       </c>
       <c r="B127" t="s">
-        <v>236</v>
+        <v>310</v>
       </c>
       <c r="C127" t="s">
         <v>379</v>
@@ -6426,19 +6426,19 @@
         <v>2</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>525</v>
+        <v>533</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="G127" s="3">
-        <v>14</v>
+        <v>533</v>
+      </c>
+      <c r="G127" s="7">
+        <v>29</v>
       </c>
       <c r="H127" s="1" t="s">
         <v>504</v>
       </c>
       <c r="I127" s="8" t="s">
-        <v>477</v>
+        <v>431</v>
       </c>
       <c r="J127" s="1" t="s">
         <v>534</v>
@@ -6449,45 +6449,45 @@
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>237</v>
+        <v>311</v>
       </c>
       <c r="B128" t="s">
-        <v>238</v>
+        <v>312</v>
       </c>
       <c r="C128" t="s">
         <v>380</v>
       </c>
       <c r="D128" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="G128" s="5" t="s">
         <v>518</v>
       </c>
       <c r="H128" s="1" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="I128" s="8" t="s">
-        <v>411</v>
+        <v>472</v>
       </c>
       <c r="J128" s="1" t="s">
-        <v>524</v>
+        <v>534</v>
       </c>
       <c r="K128" s="1" t="s">
-        <v>519</v>
+        <v>534</v>
       </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>239</v>
+        <v>313</v>
       </c>
       <c r="B129" t="s">
-        <v>240</v>
+        <v>314</v>
       </c>
       <c r="C129" t="s">
         <v>380</v>
@@ -6499,16 +6499,16 @@
         <v>524</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="G129" s="5" t="s">
-        <v>518</v>
+        <v>525</v>
+      </c>
+      <c r="G129" s="4" t="s">
+        <v>517</v>
       </c>
       <c r="H129" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="I129" s="8" t="s">
-        <v>473</v>
+        <v>491</v>
       </c>
       <c r="J129" s="1" t="s">
         <v>534</v>
@@ -6519,31 +6519,31 @@
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>241</v>
+        <v>315</v>
       </c>
       <c r="B130" t="s">
-        <v>242</v>
+        <v>316</v>
       </c>
       <c r="C130" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D130" t="s">
         <v>2</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="F130" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="G130" s="4" t="s">
-        <v>509</v>
+      <c r="G130" s="3">
+        <v>8</v>
       </c>
       <c r="H130" s="1" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="I130" s="8" t="s">
-        <v>472</v>
+        <v>485</v>
       </c>
       <c r="J130" s="1" t="s">
         <v>534</v>
@@ -6554,10 +6554,10 @@
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>243</v>
+        <v>317</v>
       </c>
       <c r="B131" t="s">
-        <v>244</v>
+        <v>318</v>
       </c>
       <c r="C131" t="s">
         <v>379</v>
@@ -6569,16 +6569,16 @@
         <v>525</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="G131" s="3">
-        <v>9</v>
+        <v>524</v>
+      </c>
+      <c r="G131" s="7">
+        <v>13</v>
       </c>
       <c r="H131" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="I131" s="8" t="s">
-        <v>478</v>
+        <v>439</v>
       </c>
       <c r="J131" s="1" t="s">
         <v>534</v>
@@ -6589,31 +6589,31 @@
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>245</v>
+        <v>319</v>
       </c>
       <c r="B132" t="s">
-        <v>246</v>
+        <v>320</v>
       </c>
       <c r="C132" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="D132" t="s">
         <v>2</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="F132" s="1" t="s">
         <v>525</v>
       </c>
-      <c r="G132" s="6" t="s">
-        <v>517</v>
+      <c r="G132" s="7">
+        <v>17</v>
       </c>
       <c r="H132" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="I132" s="8" t="s">
-        <v>431</v>
+        <v>492</v>
       </c>
       <c r="J132" s="1" t="s">
         <v>534</v>
@@ -6624,10 +6624,10 @@
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>247</v>
+        <v>321</v>
       </c>
       <c r="B133" t="s">
-        <v>248</v>
+        <v>322</v>
       </c>
       <c r="C133" t="s">
         <v>379</v>
@@ -6636,19 +6636,19 @@
         <v>2</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="G133" s="3">
-        <v>7</v>
+        <v>524</v>
+      </c>
+      <c r="G133" s="7">
+        <v>20</v>
       </c>
       <c r="H133" s="1" t="s">
         <v>504</v>
       </c>
       <c r="I133" s="8" t="s">
-        <v>431</v>
+        <v>493</v>
       </c>
       <c r="J133" s="1" t="s">
         <v>534</v>
@@ -6659,10 +6659,10 @@
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>249</v>
+        <v>323</v>
       </c>
       <c r="B134" t="s">
-        <v>250</v>
+        <v>324</v>
       </c>
       <c r="C134" t="s">
         <v>379</v>
@@ -6671,19 +6671,19 @@
         <v>2</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="G134" s="3" t="s">
-        <v>533</v>
+        <v>524</v>
+      </c>
+      <c r="G134" s="7">
+        <v>4</v>
       </c>
       <c r="H134" s="1" t="s">
-        <v>533</v>
+        <v>504</v>
       </c>
       <c r="I134" s="8" t="s">
-        <v>461</v>
+        <v>439</v>
       </c>
       <c r="J134" s="1" t="s">
         <v>534</v>
@@ -6694,31 +6694,31 @@
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>251</v>
+        <v>325</v>
       </c>
       <c r="B135" t="s">
-        <v>252</v>
+        <v>326</v>
       </c>
       <c r="C135" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D135" t="s">
         <v>2</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>533</v>
+        <v>524</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="G135" s="3" t="s">
-        <v>533</v>
+        <v>524</v>
+      </c>
+      <c r="G135" s="4" t="s">
+        <v>517</v>
       </c>
       <c r="H135" s="1" t="s">
-        <v>533</v>
+        <v>507</v>
       </c>
       <c r="I135" s="8" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
       <c r="J135" s="1" t="s">
         <v>534</v>
@@ -6729,13 +6729,13 @@
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>253</v>
+        <v>327</v>
       </c>
       <c r="B136" t="s">
-        <v>254</v>
+        <v>328</v>
       </c>
       <c r="C136" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D136" t="s">
         <v>2</v>
@@ -6746,14 +6746,14 @@
       <c r="F136" s="1" t="s">
         <v>525</v>
       </c>
-      <c r="G136" s="3">
-        <v>16</v>
+      <c r="G136" s="5" t="s">
+        <v>518</v>
       </c>
       <c r="H136" s="1" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="I136" s="8" t="s">
-        <v>460</v>
+        <v>446</v>
       </c>
       <c r="J136" s="1" t="s">
         <v>534</v>
@@ -6764,48 +6764,48 @@
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>255</v>
+        <v>329</v>
       </c>
       <c r="B137" t="s">
-        <v>256</v>
+        <v>330</v>
       </c>
       <c r="C137" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D137" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="F137" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="G137" s="3" t="s">
-        <v>517</v>
+      <c r="G137" s="4" t="s">
+        <v>503</v>
       </c>
       <c r="H137" s="1" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="I137" s="8" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
       <c r="J137" s="1" t="s">
-        <v>524</v>
+        <v>534</v>
       </c>
       <c r="K137" s="1" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>257</v>
+        <v>333</v>
       </c>
       <c r="B138" t="s">
-        <v>258</v>
+        <v>334</v>
       </c>
       <c r="C138" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D138" t="s">
         <v>2</v>
@@ -6814,16 +6814,16 @@
         <v>524</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="G138" s="3">
-        <v>7</v>
+        <v>524</v>
+      </c>
+      <c r="G138" s="4" t="s">
+        <v>509</v>
       </c>
       <c r="H138" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="I138" s="8" t="s">
-        <v>479</v>
+        <v>494</v>
       </c>
       <c r="J138" s="1" t="s">
         <v>534</v>
@@ -6834,31 +6834,31 @@
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>259</v>
+        <v>335</v>
       </c>
       <c r="B139" t="s">
-        <v>260</v>
+        <v>336</v>
       </c>
       <c r="C139" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D139" t="s">
         <v>2</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>533</v>
+        <v>524</v>
       </c>
       <c r="F139" s="1" t="s">
         <v>525</v>
       </c>
-      <c r="G139" s="3" t="s">
-        <v>533</v>
+      <c r="G139" s="4" t="s">
+        <v>509</v>
       </c>
       <c r="H139" s="1" t="s">
-        <v>533</v>
+        <v>504</v>
       </c>
       <c r="I139" s="8" t="s">
-        <v>461</v>
+        <v>411</v>
       </c>
       <c r="J139" s="1" t="s">
         <v>534</v>
@@ -6869,31 +6869,31 @@
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>261</v>
+        <v>337</v>
       </c>
       <c r="B140" t="s">
-        <v>262</v>
+        <v>338</v>
       </c>
       <c r="C140" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D140" t="s">
         <v>2</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="G140" s="3" t="s">
-        <v>517</v>
+        <v>525</v>
+      </c>
+      <c r="G140" s="4" t="s">
+        <v>509</v>
       </c>
       <c r="H140" s="1" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="I140" s="8" t="s">
-        <v>439</v>
+        <v>417</v>
       </c>
       <c r="J140" s="1" t="s">
         <v>534</v>
@@ -6904,13 +6904,13 @@
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>263</v>
+        <v>339</v>
       </c>
       <c r="B141" t="s">
-        <v>264</v>
+        <v>340</v>
       </c>
       <c r="C141" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D141" t="s">
         <v>2</v>
@@ -6921,14 +6921,14 @@
       <c r="F141" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="G141" s="4" t="s">
-        <v>503</v>
+      <c r="G141" s="3">
+        <v>3</v>
       </c>
       <c r="H141" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="I141" s="8" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="J141" s="1" t="s">
         <v>534</v>
@@ -6939,13 +6939,13 @@
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>265</v>
+        <v>341</v>
       </c>
       <c r="B142" t="s">
-        <v>266</v>
+        <v>342</v>
       </c>
       <c r="C142" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D142" t="s">
         <v>2</v>
@@ -6956,14 +6956,14 @@
       <c r="F142" s="1" t="s">
         <v>525</v>
       </c>
-      <c r="G142" s="4" t="s">
-        <v>503</v>
+      <c r="G142" s="3">
+        <v>18</v>
       </c>
       <c r="H142" s="1" t="s">
         <v>504</v>
       </c>
       <c r="I142" s="8" t="s">
-        <v>435</v>
+        <v>477</v>
       </c>
       <c r="J142" s="1" t="s">
         <v>534</v>
@@ -6974,13 +6974,13 @@
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>267</v>
+        <v>347</v>
       </c>
       <c r="B143" t="s">
-        <v>268</v>
+        <v>348</v>
       </c>
       <c r="C143" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D143" t="s">
         <v>2</v>
@@ -6989,16 +6989,16 @@
         <v>524</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="G143" s="3">
-        <v>16</v>
+        <v>524</v>
+      </c>
+      <c r="G143" s="5" t="s">
+        <v>518</v>
       </c>
       <c r="H143" s="1" t="s">
         <v>504</v>
       </c>
       <c r="I143" s="8" t="s">
-        <v>460</v>
+        <v>496</v>
       </c>
       <c r="J143" s="1" t="s">
         <v>534</v>
@@ -7009,48 +7009,48 @@
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>269</v>
+        <v>349</v>
       </c>
       <c r="B144" t="s">
-        <v>270</v>
+        <v>350</v>
       </c>
       <c r="C144" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="D144" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="F144" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="G144" s="3" t="s">
-        <v>533</v>
+      <c r="G144" s="3">
+        <v>8</v>
       </c>
       <c r="H144" s="1" t="s">
         <v>504</v>
       </c>
       <c r="I144" s="8" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="J144" s="1" t="s">
-        <v>524</v>
+        <v>534</v>
       </c>
       <c r="K144" s="1" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>271</v>
+        <v>351</v>
       </c>
       <c r="B145" t="s">
-        <v>272</v>
+        <v>352</v>
       </c>
       <c r="C145" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="D145" t="s">
         <v>2</v>
@@ -7059,16 +7059,16 @@
         <v>525</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="G145" s="3">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="H145" s="1" t="s">
-        <v>533</v>
+        <v>508</v>
       </c>
       <c r="I145" s="8" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="J145" s="1" t="s">
         <v>534</v>
@@ -7079,13 +7079,13 @@
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>273</v>
+        <v>353</v>
       </c>
       <c r="B146" t="s">
-        <v>274</v>
+        <v>354</v>
       </c>
       <c r="C146" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D146" t="s">
         <v>2</v>
@@ -7096,14 +7096,14 @@
       <c r="F146" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="G146" s="4" t="s">
-        <v>509</v>
+      <c r="G146" s="3">
+        <v>9</v>
       </c>
       <c r="H146" s="1" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="I146" s="8" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="J146" s="1" t="s">
         <v>534</v>
@@ -7114,13 +7114,13 @@
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>275</v>
+        <v>355</v>
       </c>
       <c r="B147" t="s">
-        <v>276</v>
+        <v>356</v>
       </c>
       <c r="C147" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D147" t="s">
         <v>2</v>
@@ -7129,16 +7129,16 @@
         <v>524</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="G147" s="5" t="s">
-        <v>518</v>
+        <v>525</v>
+      </c>
+      <c r="G147" s="7">
+        <v>4</v>
       </c>
       <c r="H147" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="I147" s="8" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="J147" s="1" t="s">
         <v>534</v>
@@ -7149,10 +7149,10 @@
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>277</v>
+        <v>357</v>
       </c>
       <c r="B148" t="s">
-        <v>278</v>
+        <v>358</v>
       </c>
       <c r="C148" t="s">
         <v>379</v>
@@ -7161,19 +7161,19 @@
         <v>2</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="F148" s="1" t="s">
         <v>525</v>
       </c>
-      <c r="G148" s="3">
-        <v>7</v>
+      <c r="G148" s="7">
+        <v>11</v>
       </c>
       <c r="H148" s="1" t="s">
         <v>504</v>
       </c>
       <c r="I148" s="8" t="s">
-        <v>484</v>
+        <v>497</v>
       </c>
       <c r="J148" s="1" t="s">
         <v>534</v>
@@ -7184,19 +7184,19 @@
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>279</v>
+        <v>359</v>
       </c>
       <c r="B149" t="s">
-        <v>280</v>
+        <v>360</v>
       </c>
       <c r="C149" t="s">
         <v>380</v>
       </c>
       <c r="D149" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="F149" s="1" t="s">
         <v>525</v>
@@ -7205,24 +7205,24 @@
         <v>518</v>
       </c>
       <c r="H149" s="1" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
       <c r="I149" s="8" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="J149" s="1" t="s">
-        <v>525</v>
+        <v>534</v>
       </c>
       <c r="K149" s="1" t="s">
-        <v>521</v>
+        <v>534</v>
       </c>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>281</v>
+        <v>361</v>
       </c>
       <c r="B150" t="s">
-        <v>282</v>
+        <v>362</v>
       </c>
       <c r="C150" t="s">
         <v>380</v>
@@ -7236,14 +7236,14 @@
       <c r="F150" s="1" t="s">
         <v>525</v>
       </c>
-      <c r="G150" s="5" t="s">
-        <v>518</v>
+      <c r="G150" s="4" t="s">
+        <v>503</v>
       </c>
       <c r="H150" s="1" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="I150" s="8" t="s">
-        <v>455</v>
+        <v>429</v>
       </c>
       <c r="J150" s="1" t="s">
         <v>534</v>
@@ -7254,31 +7254,31 @@
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>283</v>
+        <v>363</v>
       </c>
       <c r="B151" t="s">
-        <v>284</v>
+        <v>364</v>
       </c>
       <c r="C151" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D151" t="s">
         <v>2</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>524</v>
+        <v>533</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="G151" s="3">
-        <v>3</v>
+        <v>533</v>
+      </c>
+      <c r="G151" s="7">
+        <v>14</v>
       </c>
       <c r="H151" s="1" t="s">
         <v>504</v>
       </c>
       <c r="I151" s="8" t="s">
-        <v>485</v>
+        <v>498</v>
       </c>
       <c r="J151" s="1" t="s">
         <v>534</v>
@@ -7289,45 +7289,45 @@
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>285</v>
+        <v>365</v>
       </c>
       <c r="B152" t="s">
-        <v>286</v>
+        <v>366</v>
       </c>
       <c r="C152" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D152" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>525</v>
+        <v>533</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="G152" s="4" t="s">
-        <v>509</v>
+        <v>533</v>
+      </c>
+      <c r="G152" s="7">
+        <v>25</v>
       </c>
       <c r="H152" s="1" t="s">
         <v>504</v>
       </c>
       <c r="I152" s="8" t="s">
-        <v>445</v>
+        <v>431</v>
       </c>
       <c r="J152" s="1" t="s">
-        <v>524</v>
+        <v>534</v>
       </c>
       <c r="K152" s="1" t="s">
-        <v>512</v>
+        <v>534</v>
       </c>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>287</v>
+        <v>367</v>
       </c>
       <c r="B153" t="s">
-        <v>288</v>
+        <v>368</v>
       </c>
       <c r="C153" t="s">
         <v>379</v>
@@ -7336,16 +7336,16 @@
         <v>2</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>524</v>
+        <v>533</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="G153" s="3">
-        <v>24</v>
+        <v>533</v>
+      </c>
+      <c r="G153" s="7">
+        <v>20</v>
       </c>
       <c r="H153" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="I153" s="8" t="s">
         <v>439</v>
@@ -7359,13 +7359,13 @@
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>289</v>
+        <v>369</v>
       </c>
       <c r="B154" t="s">
-        <v>290</v>
+        <v>370</v>
       </c>
       <c r="C154" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D154" t="s">
         <v>2</v>
@@ -7376,14 +7376,14 @@
       <c r="F154" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="G154" s="3">
-        <v>6</v>
+      <c r="G154" s="4" t="s">
+        <v>503</v>
       </c>
       <c r="H154" s="1" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="I154" s="8" t="s">
-        <v>486</v>
+        <v>429</v>
       </c>
       <c r="J154" s="1" t="s">
         <v>534</v>
@@ -7394,13 +7394,13 @@
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>291</v>
+        <v>371</v>
       </c>
       <c r="B155" t="s">
-        <v>292</v>
+        <v>372</v>
       </c>
       <c r="C155" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D155" t="s">
         <v>2</v>
@@ -7411,14 +7411,14 @@
       <c r="F155" s="1" t="s">
         <v>533</v>
       </c>
-      <c r="G155" s="4" t="s">
-        <v>503</v>
+      <c r="G155" s="7">
+        <v>13</v>
       </c>
       <c r="H155" s="1" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="I155" s="8" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="J155" s="1" t="s">
         <v>534</v>
@@ -7429,10 +7429,10 @@
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>293</v>
+        <v>373</v>
       </c>
       <c r="B156" t="s">
-        <v>294</v>
+        <v>374</v>
       </c>
       <c r="C156" t="s">
         <v>379</v>
@@ -7441,19 +7441,19 @@
         <v>2</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>524</v>
+        <v>533</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>524</v>
+        <v>533</v>
       </c>
       <c r="G156" s="7">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H156" s="1" t="s">
-        <v>504</v>
+        <v>515</v>
       </c>
       <c r="I156" s="8" t="s">
-        <v>487</v>
+        <v>499</v>
       </c>
       <c r="J156" s="1" t="s">
         <v>534</v>
@@ -7464,10 +7464,10 @@
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>295</v>
+        <v>375</v>
       </c>
       <c r="B157" t="s">
-        <v>296</v>
+        <v>376</v>
       </c>
       <c r="C157" t="s">
         <v>379</v>
@@ -7476,19 +7476,19 @@
         <v>2</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>525</v>
+        <v>533</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>524</v>
+        <v>533</v>
       </c>
       <c r="G157" s="7">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="H157" s="1" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="I157" s="8" t="s">
-        <v>488</v>
+        <v>499</v>
       </c>
       <c r="J157" s="1" t="s">
         <v>534</v>
@@ -7499,101 +7499,101 @@
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>297</v>
+        <v>377</v>
       </c>
       <c r="B158" t="s">
-        <v>298</v>
+        <v>378</v>
       </c>
       <c r="C158" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D158" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E158" s="1" t="s">
         <v>525</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="G158" s="5" t="s">
-        <v>518</v>
+        <v>525</v>
+      </c>
+      <c r="G158" s="7">
+        <v>13</v>
       </c>
       <c r="H158" s="1" t="s">
         <v>504</v>
       </c>
       <c r="I158" s="8" t="s">
-        <v>442</v>
+        <v>500</v>
       </c>
       <c r="J158" s="1" t="s">
-        <v>525</v>
+        <v>534</v>
       </c>
       <c r="K158" s="1" t="s">
-        <v>520</v>
+        <v>534</v>
       </c>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>299</v>
+        <v>29</v>
       </c>
       <c r="B159" t="s">
-        <v>300</v>
+        <v>385</v>
       </c>
       <c r="C159" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D159" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E159" s="1" t="s">
         <v>524</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="G159" s="7">
-        <v>7</v>
+        <v>524</v>
+      </c>
+      <c r="G159" s="3" t="s">
+        <v>533</v>
       </c>
       <c r="H159" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="I159" s="8" t="s">
-        <v>489</v>
+        <v>411</v>
       </c>
       <c r="J159" s="1" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="K159" s="1" t="s">
-        <v>534</v>
+        <v>522</v>
       </c>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>301</v>
+        <v>50</v>
       </c>
       <c r="B160" t="s">
-        <v>302</v>
+        <v>388</v>
       </c>
       <c r="C160" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D160" t="s">
         <v>9</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="F160" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="G160" s="7">
-        <v>7</v>
+      <c r="G160" s="3" t="s">
+        <v>533</v>
       </c>
       <c r="H160" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="I160" s="8" t="s">
-        <v>489</v>
+        <v>412</v>
       </c>
       <c r="J160" s="1" t="s">
         <v>524</v>
@@ -7604,10 +7604,10 @@
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>303</v>
+        <v>114</v>
       </c>
       <c r="B161" t="s">
-        <v>304</v>
+        <v>386</v>
       </c>
       <c r="C161" t="s">
         <v>380</v>
@@ -7619,246 +7619,246 @@
         <v>525</v>
       </c>
       <c r="F161" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="G161" s="4" t="s">
-        <v>509</v>
+        <v>524</v>
+      </c>
+      <c r="G161" s="3" t="s">
+        <v>533</v>
       </c>
       <c r="H161" s="1" t="s">
-        <v>504</v>
+        <v>523</v>
       </c>
       <c r="I161" s="8" t="s">
-        <v>427</v>
+        <v>414</v>
       </c>
       <c r="J161" s="1" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="K161" s="1" t="s">
-        <v>534</v>
+        <v>512</v>
       </c>
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>305</v>
+        <v>8</v>
       </c>
       <c r="B162" t="s">
-        <v>306</v>
+        <v>392</v>
       </c>
       <c r="C162" t="s">
         <v>380</v>
       </c>
       <c r="D162" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E162" s="1" t="s">
         <v>525</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="G162" s="4" t="s">
-        <v>503</v>
+        <v>533</v>
+      </c>
+      <c r="G162" s="3" t="s">
+        <v>533</v>
       </c>
       <c r="H162" s="1" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="I162" s="8" t="s">
-        <v>490</v>
+        <v>417</v>
       </c>
       <c r="J162" s="1" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="K162" s="1" t="s">
-        <v>534</v>
+        <v>511</v>
       </c>
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>307</v>
+        <v>19</v>
       </c>
       <c r="B163" t="s">
-        <v>308</v>
+        <v>398</v>
       </c>
       <c r="C163" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D163" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="F163" s="1" t="s">
         <v>525</v>
       </c>
-      <c r="G163" s="3">
-        <v>3</v>
+      <c r="G163" s="3" t="s">
+        <v>533</v>
       </c>
       <c r="H163" s="1" t="s">
-        <v>504</v>
+        <v>523</v>
       </c>
       <c r="I163" s="8" t="s">
-        <v>485</v>
+        <v>423</v>
       </c>
       <c r="J163" s="1" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="K163" s="1" t="s">
-        <v>534</v>
+        <v>516</v>
       </c>
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>309</v>
+        <v>23</v>
       </c>
       <c r="B164" t="s">
-        <v>310</v>
+        <v>400</v>
       </c>
       <c r="C164" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D164" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>533</v>
+        <v>524</v>
       </c>
       <c r="F164" s="1" t="s">
-        <v>533</v>
-      </c>
-      <c r="G164" s="7">
-        <v>29</v>
+        <v>525</v>
+      </c>
+      <c r="G164" s="3" t="s">
+        <v>533</v>
       </c>
       <c r="H164" s="1" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="I164" s="8" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="J164" s="1" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="K164" s="1" t="s">
-        <v>534</v>
+        <v>512</v>
       </c>
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>311</v>
+        <v>27</v>
       </c>
       <c r="B165" t="s">
-        <v>312</v>
+        <v>403</v>
       </c>
       <c r="C165" t="s">
         <v>380</v>
       </c>
       <c r="D165" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="F165" s="1" t="s">
         <v>525</v>
       </c>
-      <c r="G165" s="5" t="s">
-        <v>518</v>
+      <c r="G165" s="3" t="s">
+        <v>533</v>
       </c>
       <c r="H165" s="1" t="s">
         <v>508</v>
       </c>
       <c r="I165" s="8" t="s">
-        <v>472</v>
+        <v>426</v>
       </c>
       <c r="J165" s="1" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="K165" s="1" t="s">
-        <v>534</v>
+        <v>519</v>
       </c>
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>313</v>
+        <v>40</v>
       </c>
       <c r="B166" t="s">
-        <v>314</v>
+        <v>41</v>
       </c>
       <c r="C166" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D166" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E166" s="1" t="s">
         <v>524</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="G166" s="4" t="s">
-        <v>517</v>
+        <v>524</v>
+      </c>
+      <c r="G166" s="3" t="s">
+        <v>533</v>
       </c>
       <c r="H166" s="1" t="s">
-        <v>505</v>
+        <v>526</v>
       </c>
       <c r="I166" s="8" t="s">
-        <v>491</v>
+        <v>431</v>
       </c>
       <c r="J166" s="1" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="K166" s="1" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>315</v>
+        <v>61</v>
       </c>
       <c r="B167" t="s">
-        <v>316</v>
+        <v>62</v>
       </c>
       <c r="C167" t="s">
         <v>381</v>
       </c>
       <c r="D167" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="F167" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="G167" s="3">
-        <v>8</v>
+        <v>525</v>
+      </c>
+      <c r="G167" s="3" t="s">
+        <v>533</v>
       </c>
       <c r="H167" s="1" t="s">
         <v>508</v>
       </c>
       <c r="I167" s="8" t="s">
-        <v>485</v>
+        <v>436</v>
       </c>
       <c r="J167" s="1" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="K167" s="1" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>317</v>
+        <v>74</v>
       </c>
       <c r="B168" t="s">
-        <v>318</v>
+        <v>75</v>
       </c>
       <c r="C168" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D168" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E168" s="1" t="s">
         <v>525</v>
@@ -7866,139 +7866,139 @@
       <c r="F168" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="G168" s="7">
-        <v>13</v>
+      <c r="G168" s="4" t="s">
+        <v>509</v>
       </c>
       <c r="H168" s="1" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="I168" s="8" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="J168" s="1" t="s">
-        <v>534</v>
+        <v>525</v>
       </c>
       <c r="K168" s="1" t="s">
-        <v>534</v>
+        <v>510</v>
       </c>
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>319</v>
+        <v>90</v>
       </c>
       <c r="B169" t="s">
-        <v>320</v>
+        <v>91</v>
       </c>
       <c r="C169" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D169" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="F169" s="1" t="s">
         <v>525</v>
       </c>
-      <c r="G169" s="7">
-        <v>17</v>
+      <c r="G169" s="5" t="s">
+        <v>518</v>
       </c>
       <c r="H169" s="1" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="I169" s="8" t="s">
-        <v>492</v>
+        <v>449</v>
       </c>
       <c r="J169" s="1" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="K169" s="1" t="s">
-        <v>534</v>
+        <v>512</v>
       </c>
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>321</v>
+        <v>102</v>
       </c>
       <c r="B170" t="s">
-        <v>322</v>
+        <v>103</v>
       </c>
       <c r="C170" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D170" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="F170" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="G170" s="7">
-        <v>20</v>
+        <v>525</v>
+      </c>
+      <c r="G170" s="5" t="s">
+        <v>518</v>
       </c>
       <c r="H170" s="1" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="I170" s="8" t="s">
-        <v>493</v>
+        <v>449</v>
       </c>
       <c r="J170" s="1" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="K170" s="1" t="s">
-        <v>534</v>
+        <v>511</v>
       </c>
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>323</v>
+        <v>108</v>
       </c>
       <c r="B171" t="s">
-        <v>324</v>
+        <v>109</v>
       </c>
       <c r="C171" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D171" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="F171" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="G171" s="7">
-        <v>4</v>
+      <c r="G171" s="4" t="s">
+        <v>533</v>
       </c>
       <c r="H171" s="1" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="I171" s="8" t="s">
-        <v>439</v>
+        <v>418</v>
       </c>
       <c r="J171" s="1" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="K171" s="1" t="s">
-        <v>534</v>
+        <v>516</v>
       </c>
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>325</v>
+        <v>110</v>
       </c>
       <c r="B172" t="s">
-        <v>326</v>
+        <v>111</v>
       </c>
       <c r="C172" t="s">
         <v>380</v>
       </c>
       <c r="D172" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E172" s="1" t="s">
         <v>524</v>
@@ -8007,33 +8007,33 @@
         <v>524</v>
       </c>
       <c r="G172" s="4" t="s">
-        <v>517</v>
+        <v>509</v>
       </c>
       <c r="H172" s="1" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="I172" s="8" t="s">
-        <v>472</v>
+        <v>452</v>
       </c>
       <c r="J172" s="1" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="K172" s="1" t="s">
-        <v>534</v>
+        <v>511</v>
       </c>
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>327</v>
+        <v>115</v>
       </c>
       <c r="B173" t="s">
-        <v>328</v>
+        <v>116</v>
       </c>
       <c r="C173" t="s">
         <v>380</v>
       </c>
       <c r="D173" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E173" s="1" t="s">
         <v>524</v>
@@ -8041,63 +8041,63 @@
       <c r="F173" s="1" t="s">
         <v>525</v>
       </c>
-      <c r="G173" s="5" t="s">
-        <v>518</v>
+      <c r="G173" s="4" t="s">
+        <v>503</v>
       </c>
       <c r="H173" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="I173" s="8" t="s">
-        <v>446</v>
+        <v>453</v>
       </c>
       <c r="J173" s="1" t="s">
-        <v>534</v>
+        <v>525</v>
       </c>
       <c r="K173" s="1" t="s">
-        <v>534</v>
+        <v>506</v>
       </c>
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>329</v>
+        <v>123</v>
       </c>
       <c r="B174" t="s">
-        <v>330</v>
+        <v>124</v>
       </c>
       <c r="C174" t="s">
         <v>380</v>
       </c>
       <c r="D174" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="F174" s="1" t="s">
         <v>524</v>
       </c>
       <c r="G174" s="4" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="H174" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="I174" s="8" t="s">
-        <v>475</v>
+        <v>455</v>
       </c>
       <c r="J174" s="1" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="K174" s="1" t="s">
-        <v>534</v>
+        <v>512</v>
       </c>
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>331</v>
+        <v>127</v>
       </c>
       <c r="B175" t="s">
-        <v>332</v>
+        <v>128</v>
       </c>
       <c r="C175" t="s">
         <v>380</v>
@@ -8106,45 +8106,45 @@
         <v>9</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="F175" s="1" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="G175" s="4" t="s">
         <v>509</v>
       </c>
       <c r="H175" s="1" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="I175" s="8" t="s">
-        <v>429</v>
+        <v>456</v>
       </c>
       <c r="J175" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="K175" s="1" t="s">
-        <v>533</v>
+        <v>513</v>
       </c>
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>333</v>
+        <v>129</v>
       </c>
       <c r="B176" t="s">
-        <v>334</v>
+        <v>130</v>
       </c>
       <c r="C176" t="s">
         <v>380</v>
       </c>
       <c r="D176" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E176" s="1" t="s">
         <v>524</v>
       </c>
       <c r="F176" s="1" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="G176" s="4" t="s">
         <v>509</v>
@@ -8153,7 +8153,7 @@
         <v>504</v>
       </c>
       <c r="I176" s="8" t="s">
-        <v>494</v>
+        <v>457</v>
       </c>
       <c r="J176" s="1" t="s">
         <v>534</v>
@@ -8164,16 +8164,16 @@
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>335</v>
+        <v>138</v>
       </c>
       <c r="B177" t="s">
-        <v>336</v>
+        <v>139</v>
       </c>
       <c r="C177" t="s">
         <v>380</v>
       </c>
       <c r="D177" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E177" s="1" t="s">
         <v>524</v>
@@ -8188,77 +8188,77 @@
         <v>504</v>
       </c>
       <c r="I177" s="8" t="s">
-        <v>411</v>
+        <v>457</v>
       </c>
       <c r="J177" s="1" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="K177" s="1" t="s">
-        <v>534</v>
+        <v>511</v>
       </c>
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>337</v>
+        <v>172</v>
       </c>
       <c r="B178" t="s">
-        <v>338</v>
+        <v>173</v>
       </c>
       <c r="C178" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D178" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="F178" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="G178" s="4" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="H178" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="I178" s="8" t="s">
-        <v>417</v>
+        <v>465</v>
       </c>
       <c r="J178" s="1" t="s">
-        <v>534</v>
+        <v>525</v>
       </c>
       <c r="K178" s="1" t="s">
-        <v>534</v>
+        <v>520</v>
       </c>
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>339</v>
+        <v>174</v>
       </c>
       <c r="B179" t="s">
-        <v>340</v>
+        <v>175</v>
       </c>
       <c r="C179" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D179" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="F179" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="G179" s="3">
-        <v>3</v>
+        <v>525</v>
+      </c>
+      <c r="G179" s="5" t="s">
+        <v>518</v>
       </c>
       <c r="H179" s="1" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="I179" s="8" t="s">
-        <v>481</v>
+        <v>417</v>
       </c>
       <c r="J179" s="1" t="s">
         <v>534</v>
@@ -8269,31 +8269,31 @@
     </row>
     <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>341</v>
+        <v>187</v>
       </c>
       <c r="B180" t="s">
-        <v>342</v>
+        <v>188</v>
       </c>
       <c r="C180" t="s">
         <v>379</v>
       </c>
       <c r="D180" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="F180" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="G180" s="3">
-        <v>18</v>
+        <v>524</v>
+      </c>
+      <c r="G180" s="4" t="s">
+        <v>509</v>
       </c>
       <c r="H180" s="1" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="I180" s="8" t="s">
-        <v>477</v>
+        <v>468</v>
       </c>
       <c r="J180" s="1" t="s">
         <v>534</v>
@@ -8304,10 +8304,10 @@
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>343</v>
+        <v>195</v>
       </c>
       <c r="B181" t="s">
-        <v>344</v>
+        <v>196</v>
       </c>
       <c r="C181" t="s">
         <v>380</v>
@@ -8321,28 +8321,28 @@
       <c r="F181" s="1" t="s">
         <v>525</v>
       </c>
-      <c r="G181" s="4" t="s">
-        <v>509</v>
+      <c r="G181" s="5" t="s">
+        <v>518</v>
       </c>
       <c r="H181" s="1" t="s">
         <v>504</v>
       </c>
       <c r="I181" s="8" t="s">
-        <v>435</v>
+        <v>470</v>
       </c>
       <c r="J181" s="1" t="s">
         <v>524</v>
       </c>
       <c r="K181" s="1" t="s">
-        <v>533</v>
+        <v>519</v>
       </c>
     </row>
     <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>345</v>
+        <v>197</v>
       </c>
       <c r="B182" t="s">
-        <v>346</v>
+        <v>198</v>
       </c>
       <c r="C182" t="s">
         <v>380</v>
@@ -8354,39 +8354,39 @@
         <v>525</v>
       </c>
       <c r="F182" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="G182" s="5" t="s">
-        <v>518</v>
+        <v>525</v>
+      </c>
+      <c r="G182" s="4" t="s">
+        <v>509</v>
       </c>
       <c r="H182" s="1" t="s">
-        <v>533</v>
+        <v>508</v>
       </c>
       <c r="I182" s="8" t="s">
-        <v>495</v>
+        <v>471</v>
       </c>
       <c r="J182" s="1" t="s">
         <v>524</v>
       </c>
       <c r="K182" s="1" t="s">
-        <v>533</v>
+        <v>511</v>
       </c>
     </row>
     <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>347</v>
+        <v>201</v>
       </c>
       <c r="B183" t="s">
-        <v>348</v>
+        <v>202</v>
       </c>
       <c r="C183" t="s">
         <v>380</v>
       </c>
       <c r="D183" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="F183" s="1" t="s">
         <v>524</v>
@@ -8398,427 +8398,427 @@
         <v>504</v>
       </c>
       <c r="I183" s="8" t="s">
-        <v>496</v>
+        <v>472</v>
       </c>
       <c r="J183" s="1" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="K183" s="1" t="s">
-        <v>534</v>
+        <v>516</v>
       </c>
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>349</v>
+        <v>209</v>
       </c>
       <c r="B184" t="s">
-        <v>350</v>
+        <v>210</v>
       </c>
       <c r="C184" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D184" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="F184" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="G184" s="3">
-        <v>8</v>
+      <c r="G184" s="4" t="s">
+        <v>517</v>
       </c>
       <c r="H184" s="1" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="I184" s="8" t="s">
-        <v>485</v>
+        <v>435</v>
       </c>
       <c r="J184" s="1" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="K184" s="1" t="s">
-        <v>534</v>
+        <v>516</v>
       </c>
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>351</v>
+        <v>213</v>
       </c>
       <c r="B185" t="s">
-        <v>352</v>
+        <v>214</v>
       </c>
       <c r="C185" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D185" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="F185" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="G185" s="3">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="H185" s="1" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="I185" s="8" t="s">
-        <v>486</v>
+        <v>439</v>
       </c>
       <c r="J185" s="1" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="K185" s="1" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
     </row>
     <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>353</v>
+        <v>217</v>
       </c>
       <c r="B186" t="s">
-        <v>354</v>
+        <v>218</v>
       </c>
       <c r="C186" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D186" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E186" s="1" t="s">
         <v>524</v>
       </c>
       <c r="F186" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="G186" s="3">
-        <v>9</v>
+        <v>525</v>
+      </c>
+      <c r="G186" s="4" t="s">
+        <v>509</v>
       </c>
       <c r="H186" s="1" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="I186" s="8" t="s">
-        <v>486</v>
+        <v>411</v>
       </c>
       <c r="J186" s="1" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="K186" s="1" t="s">
-        <v>534</v>
+        <v>512</v>
       </c>
     </row>
     <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>355</v>
+        <v>221</v>
       </c>
       <c r="B187" t="s">
-        <v>356</v>
+        <v>222</v>
       </c>
       <c r="C187" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D187" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E187" s="1" t="s">
         <v>524</v>
       </c>
       <c r="F187" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="G187" s="7">
-        <v>4</v>
+        <v>524</v>
+      </c>
+      <c r="G187" s="5" t="s">
+        <v>518</v>
       </c>
       <c r="H187" s="1" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="I187" s="8" t="s">
-        <v>468</v>
+        <v>445</v>
       </c>
       <c r="J187" s="1" t="s">
-        <v>534</v>
+        <v>525</v>
       </c>
       <c r="K187" s="1" t="s">
-        <v>534</v>
+        <v>520</v>
       </c>
     </row>
     <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>357</v>
+        <v>237</v>
       </c>
       <c r="B188" t="s">
-        <v>358</v>
+        <v>238</v>
       </c>
       <c r="C188" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D188" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E188" s="1" t="s">
         <v>524</v>
       </c>
       <c r="F188" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="G188" s="7">
-        <v>11</v>
+        <v>524</v>
+      </c>
+      <c r="G188" s="5" t="s">
+        <v>518</v>
       </c>
       <c r="H188" s="1" t="s">
         <v>504</v>
       </c>
       <c r="I188" s="8" t="s">
-        <v>497</v>
+        <v>411</v>
       </c>
       <c r="J188" s="1" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="K188" s="1" t="s">
-        <v>534</v>
+        <v>519</v>
       </c>
     </row>
     <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>359</v>
+        <v>255</v>
       </c>
       <c r="B189" t="s">
-        <v>360</v>
+        <v>256</v>
       </c>
       <c r="C189" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D189" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="F189" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="G189" s="5" t="s">
-        <v>518</v>
+        <v>524</v>
+      </c>
+      <c r="G189" s="3" t="s">
+        <v>517</v>
       </c>
       <c r="H189" s="1" t="s">
         <v>507</v>
       </c>
       <c r="I189" s="8" t="s">
-        <v>476</v>
+        <v>465</v>
       </c>
       <c r="J189" s="1" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="K189" s="1" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
     </row>
     <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>361</v>
+        <v>269</v>
       </c>
       <c r="B190" t="s">
-        <v>362</v>
+        <v>270</v>
       </c>
       <c r="C190" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D190" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E190" s="1" t="s">
         <v>524</v>
       </c>
       <c r="F190" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="G190" s="4" t="s">
-        <v>503</v>
+        <v>524</v>
+      </c>
+      <c r="G190" s="3" t="s">
+        <v>533</v>
       </c>
       <c r="H190" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="I190" s="8" t="s">
-        <v>429</v>
+        <v>481</v>
       </c>
       <c r="J190" s="1" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="K190" s="1" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>363</v>
+        <v>279</v>
       </c>
       <c r="B191" t="s">
-        <v>364</v>
+        <v>280</v>
       </c>
       <c r="C191" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D191" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>533</v>
+        <v>524</v>
       </c>
       <c r="F191" s="1" t="s">
-        <v>533</v>
-      </c>
-      <c r="G191" s="7">
-        <v>14</v>
+        <v>525</v>
+      </c>
+      <c r="G191" s="5" t="s">
+        <v>518</v>
       </c>
       <c r="H191" s="1" t="s">
-        <v>504</v>
+        <v>515</v>
       </c>
       <c r="I191" s="8" t="s">
-        <v>498</v>
+        <v>472</v>
       </c>
       <c r="J191" s="1" t="s">
-        <v>534</v>
+        <v>525</v>
       </c>
       <c r="K191" s="1" t="s">
-        <v>534</v>
+        <v>521</v>
       </c>
     </row>
     <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>365</v>
+        <v>285</v>
       </c>
       <c r="B192" t="s">
-        <v>366</v>
+        <v>286</v>
       </c>
       <c r="C192" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D192" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="F192" s="1" t="s">
-        <v>533</v>
-      </c>
-      <c r="G192" s="7">
-        <v>25</v>
+        <v>525</v>
+      </c>
+      <c r="G192" s="4" t="s">
+        <v>509</v>
       </c>
       <c r="H192" s="1" t="s">
         <v>504</v>
       </c>
       <c r="I192" s="8" t="s">
-        <v>431</v>
+        <v>445</v>
       </c>
       <c r="J192" s="1" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="K192" s="1" t="s">
-        <v>534</v>
+        <v>512</v>
       </c>
     </row>
     <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>367</v>
+        <v>297</v>
       </c>
       <c r="B193" t="s">
-        <v>368</v>
+        <v>298</v>
       </c>
       <c r="C193" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D193" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="F193" s="1" t="s">
-        <v>533</v>
-      </c>
-      <c r="G193" s="7">
-        <v>20</v>
+        <v>524</v>
+      </c>
+      <c r="G193" s="5" t="s">
+        <v>518</v>
       </c>
       <c r="H193" s="1" t="s">
         <v>504</v>
       </c>
       <c r="I193" s="8" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="J193" s="1" t="s">
-        <v>534</v>
+        <v>525</v>
       </c>
       <c r="K193" s="1" t="s">
-        <v>534</v>
+        <v>520</v>
       </c>
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>369</v>
+        <v>301</v>
       </c>
       <c r="B194" t="s">
-        <v>370</v>
+        <v>302</v>
       </c>
       <c r="C194" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D194" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="F194" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="G194" s="4" t="s">
-        <v>503</v>
+      <c r="G194" s="7">
+        <v>7</v>
       </c>
       <c r="H194" s="1" t="s">
         <v>505</v>
       </c>
       <c r="I194" s="8" t="s">
-        <v>429</v>
+        <v>489</v>
       </c>
       <c r="J194" s="1" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="K194" s="1" t="s">
-        <v>534</v>
+        <v>512</v>
       </c>
     </row>
     <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>371</v>
+        <v>303</v>
       </c>
       <c r="B195" t="s">
-        <v>372</v>
+        <v>304</v>
       </c>
       <c r="C195" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D195" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="F195" s="1" t="s">
-        <v>533</v>
-      </c>
-      <c r="G195" s="7">
-        <v>13</v>
+        <v>525</v>
+      </c>
+      <c r="G195" s="4" t="s">
+        <v>509</v>
       </c>
       <c r="H195" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="I195" s="8" t="s">
-        <v>469</v>
+        <v>427</v>
       </c>
       <c r="J195" s="1" t="s">
         <v>534</v>
@@ -8829,110 +8829,113 @@
     </row>
     <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>373</v>
+        <v>331</v>
       </c>
       <c r="B196" t="s">
-        <v>374</v>
+        <v>332</v>
       </c>
       <c r="C196" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D196" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>533</v>
+        <v>524</v>
       </c>
       <c r="F196" s="1" t="s">
-        <v>533</v>
-      </c>
-      <c r="G196" s="7">
-        <v>15</v>
+        <v>524</v>
+      </c>
+      <c r="G196" s="4" t="s">
+        <v>509</v>
       </c>
       <c r="H196" s="1" t="s">
-        <v>515</v>
+        <v>504</v>
       </c>
       <c r="I196" s="8" t="s">
-        <v>499</v>
+        <v>429</v>
       </c>
       <c r="J196" s="1" t="s">
-        <v>534</v>
+        <v>525</v>
       </c>
       <c r="K196" s="1" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>375</v>
+        <v>343</v>
       </c>
       <c r="B197" t="s">
-        <v>376</v>
+        <v>344</v>
       </c>
       <c r="C197" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D197" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>533</v>
+        <v>524</v>
       </c>
       <c r="F197" s="1" t="s">
-        <v>533</v>
-      </c>
-      <c r="G197" s="7">
-        <v>20</v>
+        <v>525</v>
+      </c>
+      <c r="G197" s="4" t="s">
+        <v>509</v>
       </c>
       <c r="H197" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="I197" s="8" t="s">
-        <v>499</v>
+        <v>435</v>
       </c>
       <c r="J197" s="1" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="K197" s="1" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>377</v>
+        <v>345</v>
       </c>
       <c r="B198" t="s">
-        <v>378</v>
+        <v>346</v>
       </c>
       <c r="C198" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D198" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E198" s="1" t="s">
         <v>525</v>
       </c>
       <c r="F198" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="G198" s="7">
-        <v>13</v>
+        <v>524</v>
+      </c>
+      <c r="G198" s="5" t="s">
+        <v>518</v>
       </c>
       <c r="H198" s="1" t="s">
-        <v>504</v>
+        <v>533</v>
       </c>
       <c r="I198" s="8" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="J198" s="1" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="K198" s="1" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K198">
+    <sortCondition ref="D2:D198"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
